--- a/output/educo.xlsx
+++ b/output/educo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
   <si>
     <t>Pais-Año</t>
   </si>
@@ -25,46 +25,46 @@
     <t>Gross_National_Income</t>
   </si>
   <si>
-    <t>Subvencion_publica</t>
-  </si>
-  <si>
-    <t>dinero_anyo_anterior_en_proyectos</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Latinoamerica</t>
+    <t>Public_Grant</t>
+  </si>
+  <si>
+    <t>NGO_Country_Budget_Previous_Year</t>
+  </si>
+  <si>
+    <t>Vision_ONGD_LatinAmerica</t>
   </si>
   <si>
     <t>Vision_ONGD_Africa</t>
   </si>
   <si>
-    <t>Vision_ONGD_Confesional</t>
+    <t>Vision_ONGD_Confessional</t>
   </si>
   <si>
     <t>Vision_ONGD_Universal</t>
   </si>
   <si>
-    <t>Fondos_Publicos_MAE</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Descentralizada</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Internacional</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Otros</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Total</t>
-  </si>
-  <si>
-    <t>Fondos_Privados_Cuotas</t>
-  </si>
-  <si>
-    <t>Fondos_Privados_Donaciones</t>
-  </si>
-  <si>
-    <t>Fondos_Privados_Empresas</t>
+    <t>Public_Funds_MAE</t>
+  </si>
+  <si>
+    <t>Public_Funds_Decentralized</t>
+  </si>
+  <si>
+    <t>Public_Funds_Internacional</t>
+  </si>
+  <si>
+    <t>Public_Funds_Other</t>
+  </si>
+  <si>
+    <t>Public_Funds_Total</t>
+  </si>
+  <si>
+    <t>Private_Funds_Cuotas</t>
+  </si>
+  <si>
+    <t>Public_Funds_Donations</t>
+  </si>
+  <si>
+    <t>Public_Funds_Companies</t>
   </si>
   <si>
     <t>Fondos_Privados_Venta</t>
@@ -116,6 +116,15 @@
   </si>
   <si>
     <t>Proporcion_Fondos_Privados</t>
+  </si>
+  <si>
+    <t>Anyo_ONG</t>
+  </si>
+  <si>
+    <t>Internacional</t>
+  </si>
+  <si>
+    <t>Colony</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -735,7 +744,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ92"/>
+  <dimension ref="A1:AM92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -744,7 +753,7 @@
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:39">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -853,10 +862,19 @@
       <c r="AJ1" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:39">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -955,15 +973,24 @@
         <v>0.05598924987170031</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>1</v>
+      </c>
+      <c r="AL2">
+        <v>1</v>
+      </c>
+      <c r="AM2">
         <v>748007</v>
       </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:39">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1062,15 +1089,24 @@
         <v>0.05598924987170031</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>1</v>
+      </c>
+      <c r="AM3">
         <v>115158.2222222222</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:39">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1169,15 +1205,24 @@
         <v>0.05598924987170031</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>1</v>
+      </c>
+      <c r="AL4">
+        <v>1</v>
+      </c>
+      <c r="AM4">
         <v>115158.2222222222</v>
       </c>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:39">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1276,15 +1321,24 @@
         <v>0.05598924987170031</v>
       </c>
       <c r="AI5">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>1</v>
+      </c>
+      <c r="AM5">
         <v>295350</v>
       </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:39">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1383,15 +1437,24 @@
         <v>0.05598924987170031</v>
       </c>
       <c r="AI6">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>1</v>
+      </c>
+      <c r="AL6">
+        <v>1</v>
+      </c>
+      <c r="AM6">
         <v>115158.2222222222</v>
       </c>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:39">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1490,15 +1553,24 @@
         <v>0.05598924987170031</v>
       </c>
       <c r="AI7">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>1</v>
+      </c>
+      <c r="AL7">
+        <v>1</v>
+      </c>
+      <c r="AM7">
         <v>159219</v>
       </c>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:39">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1597,15 +1669,24 @@
         <v>0.05598924987170031</v>
       </c>
       <c r="AI8">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>1</v>
+      </c>
+      <c r="AL8">
+        <v>1</v>
+      </c>
+      <c r="AM8">
         <v>363249</v>
       </c>
     </row>
-    <row r="9" spans="1:36">
+    <row r="9" spans="1:39">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1704,15 +1785,24 @@
         <v>0.05598924987170031</v>
       </c>
       <c r="AI9">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9">
+        <v>1</v>
+      </c>
+      <c r="AM9">
         <v>115158.2222222222</v>
       </c>
     </row>
-    <row r="10" spans="1:36">
+    <row r="10" spans="1:39">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1811,15 +1901,24 @@
         <v>0.05598924987170031</v>
       </c>
       <c r="AI10">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>1</v>
+      </c>
+      <c r="AL10">
+        <v>1</v>
+      </c>
+      <c r="AM10">
         <v>115158.2222222222</v>
       </c>
     </row>
-    <row r="11" spans="1:36">
+    <row r="11" spans="1:39">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1918,15 +2017,24 @@
         <v>0.05598924987170031</v>
       </c>
       <c r="AI11">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>1</v>
+      </c>
+      <c r="AL11">
+        <v>1</v>
+      </c>
+      <c r="AM11">
         <v>565884</v>
       </c>
     </row>
-    <row r="12" spans="1:36">
+    <row r="12" spans="1:39">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2025,15 +2133,24 @@
         <v>0.05598924987170031</v>
       </c>
       <c r="AI12">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>1</v>
+      </c>
+      <c r="AL12">
+        <v>1</v>
+      </c>
+      <c r="AM12">
         <v>328627.6666666667</v>
       </c>
     </row>
-    <row r="13" spans="1:36">
+    <row r="13" spans="1:39">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2132,15 +2249,24 @@
         <v>0.05598924987170031</v>
       </c>
       <c r="AI13">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>1</v>
+      </c>
+      <c r="AL13">
+        <v>1</v>
+      </c>
+      <c r="AM13">
         <v>602999</v>
       </c>
     </row>
-    <row r="14" spans="1:36">
+    <row r="14" spans="1:39">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2239,15 +2365,24 @@
         <v>0.04798204684213208</v>
       </c>
       <c r="AI14">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <v>1</v>
+      </c>
+      <c r="AL14">
+        <v>1</v>
+      </c>
+      <c r="AM14">
         <v>932808</v>
       </c>
     </row>
-    <row r="15" spans="1:36">
+    <row r="15" spans="1:39">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -2346,15 +2481,24 @@
         <v>0.04798204684213208</v>
       </c>
       <c r="AI15">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <v>0</v>
+      </c>
+      <c r="AL15">
+        <v>1</v>
+      </c>
+      <c r="AM15">
         <v>72358.66666666667</v>
       </c>
     </row>
-    <row r="16" spans="1:36">
+    <row r="16" spans="1:39">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -2453,15 +2597,24 @@
         <v>0.04798204684213208</v>
       </c>
       <c r="AI16">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>1</v>
+      </c>
+      <c r="AL16">
+        <v>1</v>
+      </c>
+      <c r="AM16">
         <v>72358.66666666667</v>
       </c>
     </row>
-    <row r="17" spans="1:36">
+    <row r="17" spans="1:39">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2560,15 +2713,24 @@
         <v>0.04798204684213208</v>
       </c>
       <c r="AI17">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ17">
+        <v>0</v>
+      </c>
+      <c r="AK17">
+        <v>0</v>
+      </c>
+      <c r="AL17">
+        <v>1</v>
+      </c>
+      <c r="AM17">
         <v>554452</v>
       </c>
     </row>
-    <row r="18" spans="1:36">
+    <row r="18" spans="1:39">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2667,15 +2829,24 @@
         <v>0.04798204684213208</v>
       </c>
       <c r="AI18">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <v>1</v>
+      </c>
+      <c r="AL18">
+        <v>1</v>
+      </c>
+      <c r="AM18">
         <v>72358.66666666667</v>
       </c>
     </row>
-    <row r="19" spans="1:36">
+    <row r="19" spans="1:39">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -2774,15 +2945,24 @@
         <v>0.04798204684213208</v>
       </c>
       <c r="AI19">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ19">
+        <v>0</v>
+      </c>
+      <c r="AK19">
+        <v>1</v>
+      </c>
+      <c r="AL19">
+        <v>1</v>
+      </c>
+      <c r="AM19">
         <v>296915</v>
       </c>
     </row>
-    <row r="20" spans="1:36">
+    <row r="20" spans="1:39">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -2881,15 +3061,24 @@
         <v>0.04798204684213208</v>
       </c>
       <c r="AI20">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ20">
+        <v>0</v>
+      </c>
+      <c r="AK20">
+        <v>1</v>
+      </c>
+      <c r="AL20">
+        <v>1</v>
+      </c>
+      <c r="AM20">
         <v>335344</v>
       </c>
     </row>
-    <row r="21" spans="1:36">
+    <row r="21" spans="1:39">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -2988,15 +3177,24 @@
         <v>0.04798204684213208</v>
       </c>
       <c r="AI21">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ21">
+        <v>0</v>
+      </c>
+      <c r="AK21">
+        <v>0</v>
+      </c>
+      <c r="AL21">
+        <v>1</v>
+      </c>
+      <c r="AM21">
         <v>72358.66666666667</v>
       </c>
     </row>
-    <row r="22" spans="1:36">
+    <row r="22" spans="1:39">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -3095,15 +3293,24 @@
         <v>0.04798204684213208</v>
       </c>
       <c r="AI22">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ22">
+        <v>0</v>
+      </c>
+      <c r="AK22">
+        <v>1</v>
+      </c>
+      <c r="AL22">
+        <v>1</v>
+      </c>
+      <c r="AM22">
         <v>72358.66666666667</v>
       </c>
     </row>
-    <row r="23" spans="1:36">
+    <row r="23" spans="1:39">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -3202,15 +3409,24 @@
         <v>0.04798204684213208</v>
       </c>
       <c r="AI23">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ23">
+        <v>0</v>
+      </c>
+      <c r="AK23">
+        <v>1</v>
+      </c>
+      <c r="AL23">
+        <v>1</v>
+      </c>
+      <c r="AM23">
         <v>1361294</v>
       </c>
     </row>
-    <row r="24" spans="1:36">
+    <row r="24" spans="1:39">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -3309,15 +3525,24 @@
         <v>0.04798204684213208</v>
       </c>
       <c r="AI24">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ24">
+        <v>0</v>
+      </c>
+      <c r="AK24">
+        <v>1</v>
+      </c>
+      <c r="AL24">
+        <v>1</v>
+      </c>
+      <c r="AM24">
         <v>365538</v>
       </c>
     </row>
-    <row r="25" spans="1:36">
+    <row r="25" spans="1:39">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -3416,15 +3641,24 @@
         <v>0.04798204684213208</v>
       </c>
       <c r="AI25">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ25">
+        <v>0</v>
+      </c>
+      <c r="AK25">
+        <v>1</v>
+      </c>
+      <c r="AL25">
+        <v>1</v>
+      </c>
+      <c r="AM25">
         <v>487623</v>
       </c>
     </row>
-    <row r="26" spans="1:36">
+    <row r="26" spans="1:39">
       <c r="A26" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -3523,15 +3757,24 @@
         <v>0.02872659121361325</v>
       </c>
       <c r="AI26">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ26">
+        <v>0</v>
+      </c>
+      <c r="AK26">
+        <v>1</v>
+      </c>
+      <c r="AL26">
+        <v>1</v>
+      </c>
+      <c r="AM26">
         <v>330805</v>
       </c>
     </row>
-    <row r="27" spans="1:36">
+    <row r="27" spans="1:39">
       <c r="A27" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -3630,15 +3873,24 @@
         <v>0.02872659121361325</v>
       </c>
       <c r="AI27">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ27">
+        <v>0</v>
+      </c>
+      <c r="AK27">
+        <v>1</v>
+      </c>
+      <c r="AL27">
+        <v>1</v>
+      </c>
+      <c r="AM27">
         <v>674878</v>
       </c>
     </row>
-    <row r="28" spans="1:36">
+    <row r="28" spans="1:39">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -3737,15 +3989,24 @@
         <v>0.02872659121361325</v>
       </c>
       <c r="AI28">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ28">
+        <v>0</v>
+      </c>
+      <c r="AK28">
+        <v>1</v>
+      </c>
+      <c r="AL28">
+        <v>1</v>
+      </c>
+      <c r="AM28">
         <v>361690</v>
       </c>
     </row>
-    <row r="29" spans="1:36">
+    <row r="29" spans="1:39">
       <c r="A29" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -3844,15 +4105,24 @@
         <v>0.02872659121361325</v>
       </c>
       <c r="AI29">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ29">
+        <v>0</v>
+      </c>
+      <c r="AK29">
+        <v>0</v>
+      </c>
+      <c r="AL29">
+        <v>1</v>
+      </c>
+      <c r="AM29">
         <v>301829</v>
       </c>
     </row>
-    <row r="30" spans="1:36">
+    <row r="30" spans="1:39">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -3951,15 +4221,24 @@
         <v>0.02872659121361325</v>
       </c>
       <c r="AI30">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ30">
+        <v>0</v>
+      </c>
+      <c r="AK30">
+        <v>1</v>
+      </c>
+      <c r="AL30">
+        <v>1</v>
+      </c>
+      <c r="AM30">
         <v>115304</v>
       </c>
     </row>
-    <row r="31" spans="1:36">
+    <row r="31" spans="1:39">
       <c r="A31" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -4058,15 +4337,24 @@
         <v>0.02872659121361325</v>
       </c>
       <c r="AI31">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ31">
+        <v>0</v>
+      </c>
+      <c r="AK31">
+        <v>1</v>
+      </c>
+      <c r="AL31">
+        <v>1</v>
+      </c>
+      <c r="AM31">
         <v>479067</v>
       </c>
     </row>
-    <row r="32" spans="1:36">
+    <row r="32" spans="1:39">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -4165,15 +4453,24 @@
         <v>0.02872659121361325</v>
       </c>
       <c r="AI32">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ32">
+        <v>0</v>
+      </c>
+      <c r="AK32">
+        <v>1</v>
+      </c>
+      <c r="AL32">
+        <v>1</v>
+      </c>
+      <c r="AM32">
         <v>581907</v>
       </c>
     </row>
-    <row r="33" spans="1:36">
+    <row r="33" spans="1:39">
       <c r="A33" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -4272,15 +4569,24 @@
         <v>0.1914123322570419</v>
       </c>
       <c r="AI33">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ33">
+        <v>0</v>
+      </c>
+      <c r="AK33">
+        <v>1</v>
+      </c>
+      <c r="AL33">
+        <v>1</v>
+      </c>
+      <c r="AM33">
         <v>267680.5</v>
       </c>
     </row>
-    <row r="34" spans="1:36">
+    <row r="34" spans="1:39">
       <c r="A34" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -4379,15 +4685,24 @@
         <v>0.1914123322570419</v>
       </c>
       <c r="AI34">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ34">
+        <v>0</v>
+      </c>
+      <c r="AK34">
+        <v>1</v>
+      </c>
+      <c r="AL34">
+        <v>1</v>
+      </c>
+      <c r="AM34">
         <v>71965.5</v>
       </c>
     </row>
-    <row r="35" spans="1:36">
+    <row r="35" spans="1:39">
       <c r="A35" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -4486,15 +4801,24 @@
         <v>0.1914123322570419</v>
       </c>
       <c r="AI35">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ35">
+        <v>0</v>
+      </c>
+      <c r="AK35">
+        <v>0</v>
+      </c>
+      <c r="AL35">
+        <v>1</v>
+      </c>
+      <c r="AM35">
         <v>78484.5</v>
       </c>
     </row>
-    <row r="36" spans="1:36">
+    <row r="36" spans="1:39">
       <c r="A36" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -4593,15 +4917,24 @@
         <v>0.1914123322570419</v>
       </c>
       <c r="AI36">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ36">
+        <v>0</v>
+      </c>
+      <c r="AK36">
+        <v>1</v>
+      </c>
+      <c r="AL36">
+        <v>1</v>
+      </c>
+      <c r="AM36">
         <v>147654</v>
       </c>
     </row>
-    <row r="37" spans="1:36">
+    <row r="37" spans="1:39">
       <c r="A37" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -4700,15 +5033,24 @@
         <v>0.1914123322570419</v>
       </c>
       <c r="AI37">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ37">
+        <v>0</v>
+      </c>
+      <c r="AK37">
+        <v>1</v>
+      </c>
+      <c r="AL37">
+        <v>1</v>
+      </c>
+      <c r="AM37">
         <v>158600.5</v>
       </c>
     </row>
-    <row r="38" spans="1:36">
+    <row r="38" spans="1:39">
       <c r="A38" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -4807,15 +5149,24 @@
         <v>0.2391400796997132</v>
       </c>
       <c r="AI38">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ38">
+        <v>0</v>
+      </c>
+      <c r="AK38">
+        <v>1</v>
+      </c>
+      <c r="AL38">
+        <v>1</v>
+      </c>
+      <c r="AM38">
         <v>267680.5</v>
       </c>
     </row>
-    <row r="39" spans="1:36">
+    <row r="39" spans="1:39">
       <c r="A39" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -4914,15 +5265,24 @@
         <v>0.2391400796997132</v>
       </c>
       <c r="AI39">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ39">
+        <v>0</v>
+      </c>
+      <c r="AK39">
+        <v>1</v>
+      </c>
+      <c r="AL39">
+        <v>1</v>
+      </c>
+      <c r="AM39">
         <v>71965.5</v>
       </c>
     </row>
-    <row r="40" spans="1:36">
+    <row r="40" spans="1:39">
       <c r="A40" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -5021,15 +5381,24 @@
         <v>0.2391400796997132</v>
       </c>
       <c r="AI40">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ40">
+        <v>0</v>
+      </c>
+      <c r="AK40">
+        <v>0</v>
+      </c>
+      <c r="AL40">
+        <v>1</v>
+      </c>
+      <c r="AM40">
         <v>78484.5</v>
       </c>
     </row>
-    <row r="41" spans="1:36">
+    <row r="41" spans="1:39">
       <c r="A41" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -5128,15 +5497,24 @@
         <v>0.2391400796997132</v>
       </c>
       <c r="AI41">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ41">
+        <v>0</v>
+      </c>
+      <c r="AK41">
+        <v>1</v>
+      </c>
+      <c r="AL41">
+        <v>1</v>
+      </c>
+      <c r="AM41">
         <v>147654</v>
       </c>
     </row>
-    <row r="42" spans="1:36">
+    <row r="42" spans="1:39">
       <c r="A42" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -5235,15 +5613,24 @@
         <v>0.2391400796997132</v>
       </c>
       <c r="AI42">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ42">
+        <v>0</v>
+      </c>
+      <c r="AK42">
+        <v>1</v>
+      </c>
+      <c r="AL42">
+        <v>1</v>
+      </c>
+      <c r="AM42">
         <v>158600.5</v>
       </c>
     </row>
-    <row r="43" spans="1:36">
+    <row r="43" spans="1:39">
       <c r="A43" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -5342,15 +5729,24 @@
         <v>0.999912462909666</v>
       </c>
       <c r="AI43">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ43">
+        <v>0</v>
+      </c>
+      <c r="AK43">
+        <v>0</v>
+      </c>
+      <c r="AL43">
+        <v>1</v>
+      </c>
+      <c r="AM43">
         <v>396500</v>
       </c>
     </row>
-    <row r="44" spans="1:36">
+    <row r="44" spans="1:39">
       <c r="A44" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -5449,15 +5845,24 @@
         <v>0.999912462909666</v>
       </c>
       <c r="AI44">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ44">
+        <v>0</v>
+      </c>
+      <c r="AK44">
+        <v>0</v>
+      </c>
+      <c r="AL44">
+        <v>1</v>
+      </c>
+      <c r="AM44">
         <v>229500</v>
       </c>
     </row>
-    <row r="45" spans="1:36">
+    <row r="45" spans="1:39">
       <c r="A45" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -5556,15 +5961,24 @@
         <v>0.999912462909666</v>
       </c>
       <c r="AI45">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ45">
+        <v>0</v>
+      </c>
+      <c r="AK45">
+        <v>1</v>
+      </c>
+      <c r="AL45">
+        <v>1</v>
+      </c>
+      <c r="AM45">
         <v>777500</v>
       </c>
     </row>
-    <row r="46" spans="1:36">
+    <row r="46" spans="1:39">
       <c r="A46" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -5663,15 +6077,24 @@
         <v>0.999912462909666</v>
       </c>
       <c r="AI46">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ46">
+        <v>0</v>
+      </c>
+      <c r="AK46">
+        <v>0</v>
+      </c>
+      <c r="AL46">
+        <v>1</v>
+      </c>
+      <c r="AM46">
         <v>304500</v>
       </c>
     </row>
-    <row r="47" spans="1:36">
+    <row r="47" spans="1:39">
       <c r="A47" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -5770,15 +6193,24 @@
         <v>0.999912462909666</v>
       </c>
       <c r="AI47">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ47">
+        <v>0</v>
+      </c>
+      <c r="AK47">
+        <v>0</v>
+      </c>
+      <c r="AL47">
+        <v>1</v>
+      </c>
+      <c r="AM47">
         <v>182500</v>
       </c>
     </row>
-    <row r="48" spans="1:36">
+    <row r="48" spans="1:39">
       <c r="A48" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -5877,15 +6309,24 @@
         <v>0.999912462909666</v>
       </c>
       <c r="AI48">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ48">
+        <v>0</v>
+      </c>
+      <c r="AK48">
+        <v>1</v>
+      </c>
+      <c r="AL48">
+        <v>1</v>
+      </c>
+      <c r="AM48">
         <v>731500</v>
       </c>
     </row>
-    <row r="49" spans="1:36">
+    <row r="49" spans="1:39">
       <c r="A49" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -5984,15 +6425,24 @@
         <v>0.999912462909666</v>
       </c>
       <c r="AI49">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ49">
+        <v>0</v>
+      </c>
+      <c r="AK49">
+        <v>1</v>
+      </c>
+      <c r="AL49">
+        <v>1</v>
+      </c>
+      <c r="AM49">
         <v>703000</v>
       </c>
     </row>
-    <row r="50" spans="1:36">
+    <row r="50" spans="1:39">
       <c r="A50" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -6091,15 +6541,24 @@
         <v>0.999912462909666</v>
       </c>
       <c r="AI50">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ50">
+        <v>0</v>
+      </c>
+      <c r="AK50">
+        <v>1</v>
+      </c>
+      <c r="AL50">
+        <v>1</v>
+      </c>
+      <c r="AM50">
         <v>518000</v>
       </c>
     </row>
-    <row r="51" spans="1:36">
+    <row r="51" spans="1:39">
       <c r="A51" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -6198,15 +6657,24 @@
         <v>0.999912462909666</v>
       </c>
       <c r="AI51">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ51">
+        <v>0</v>
+      </c>
+      <c r="AK51">
+        <v>0</v>
+      </c>
+      <c r="AL51">
+        <v>1</v>
+      </c>
+      <c r="AM51">
         <v>119000</v>
       </c>
     </row>
-    <row r="52" spans="1:36">
+    <row r="52" spans="1:39">
       <c r="A52" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -6305,15 +6773,24 @@
         <v>0.999912462909666</v>
       </c>
       <c r="AI52">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ52">
+        <v>0</v>
+      </c>
+      <c r="AK52">
+        <v>1</v>
+      </c>
+      <c r="AL52">
+        <v>1</v>
+      </c>
+      <c r="AM52">
         <v>937000</v>
       </c>
     </row>
-    <row r="53" spans="1:36">
+    <row r="53" spans="1:39">
       <c r="A53" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -6412,15 +6889,24 @@
         <v>0.999912462909666</v>
       </c>
       <c r="AI53">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ53">
+        <v>0</v>
+      </c>
+      <c r="AK53">
+        <v>0</v>
+      </c>
+      <c r="AL53">
+        <v>1</v>
+      </c>
+      <c r="AM53">
         <v>846000</v>
       </c>
     </row>
-    <row r="54" spans="1:36">
+    <row r="54" spans="1:39">
       <c r="A54" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -6519,15 +7005,24 @@
         <v>0.999912462909666</v>
       </c>
       <c r="AI54">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ54">
+        <v>0</v>
+      </c>
+      <c r="AK54">
+        <v>0</v>
+      </c>
+      <c r="AL54">
+        <v>1</v>
+      </c>
+      <c r="AM54">
         <v>362000</v>
       </c>
     </row>
-    <row r="55" spans="1:36">
+    <row r="55" spans="1:39">
       <c r="A55" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -6626,15 +7121,24 @@
         <v>0.999912462909666</v>
       </c>
       <c r="AI55">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ55">
+        <v>0</v>
+      </c>
+      <c r="AK55">
+        <v>0</v>
+      </c>
+      <c r="AL55">
+        <v>1</v>
+      </c>
+      <c r="AM55">
         <v>1600</v>
       </c>
     </row>
-    <row r="56" spans="1:36">
+    <row r="56" spans="1:39">
       <c r="A56" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -6733,15 +7237,24 @@
         <v>0.999912462909666</v>
       </c>
       <c r="AI56">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ56">
+        <v>0</v>
+      </c>
+      <c r="AK56">
+        <v>1</v>
+      </c>
+      <c r="AL56">
+        <v>1</v>
+      </c>
+      <c r="AM56">
         <v>414000</v>
       </c>
     </row>
-    <row r="57" spans="1:36">
+    <row r="57" spans="1:39">
       <c r="A57" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -6840,15 +7353,24 @@
         <v>0.999912462909666</v>
       </c>
       <c r="AI57">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ57">
+        <v>0</v>
+      </c>
+      <c r="AK57">
+        <v>1</v>
+      </c>
+      <c r="AL57">
+        <v>1</v>
+      </c>
+      <c r="AM57">
         <v>659500</v>
       </c>
     </row>
-    <row r="58" spans="1:36">
+    <row r="58" spans="1:39">
       <c r="A58" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -6947,15 +7469,24 @@
         <v>0.999912462909666</v>
       </c>
       <c r="AI58">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ58">
+        <v>0</v>
+      </c>
+      <c r="AK58">
+        <v>0</v>
+      </c>
+      <c r="AL58">
+        <v>1</v>
+      </c>
+      <c r="AM58">
         <v>6000</v>
       </c>
     </row>
-    <row r="59" spans="1:36">
+    <row r="59" spans="1:39">
       <c r="A59" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -7054,15 +7585,24 @@
         <v>0.999912462909666</v>
       </c>
       <c r="AI59">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ59">
+        <v>0</v>
+      </c>
+      <c r="AK59">
+        <v>0</v>
+      </c>
+      <c r="AL59">
+        <v>1</v>
+      </c>
+      <c r="AM59">
         <v>38500</v>
       </c>
     </row>
-    <row r="60" spans="1:36">
+    <row r="60" spans="1:39">
       <c r="A60" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -7161,15 +7701,24 @@
         <v>0.999912462909666</v>
       </c>
       <c r="AI60">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ60">
+        <v>0</v>
+      </c>
+      <c r="AK60">
+        <v>0</v>
+      </c>
+      <c r="AL60">
+        <v>1</v>
+      </c>
+      <c r="AM60">
         <v>700</v>
       </c>
     </row>
-    <row r="61" spans="1:36">
+    <row r="61" spans="1:39">
       <c r="A61" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -7268,15 +7817,24 @@
         <v>0.9902632412736856</v>
       </c>
       <c r="AI61">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ61">
+        <v>0</v>
+      </c>
+      <c r="AK61">
+        <v>0</v>
+      </c>
+      <c r="AL61">
+        <v>1</v>
+      </c>
+      <c r="AM61">
         <v>396500</v>
       </c>
     </row>
-    <row r="62" spans="1:36">
+    <row r="62" spans="1:39">
       <c r="A62" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -7375,15 +7933,24 @@
         <v>0.9902632412736856</v>
       </c>
       <c r="AI62">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ62">
+        <v>0</v>
+      </c>
+      <c r="AK62">
+        <v>0</v>
+      </c>
+      <c r="AL62">
+        <v>1</v>
+      </c>
+      <c r="AM62">
         <v>229500</v>
       </c>
     </row>
-    <row r="63" spans="1:36">
+    <row r="63" spans="1:39">
       <c r="A63" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -7482,15 +8049,24 @@
         <v>0.9902632412736856</v>
       </c>
       <c r="AI63">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ63">
+        <v>0</v>
+      </c>
+      <c r="AK63">
+        <v>1</v>
+      </c>
+      <c r="AL63">
+        <v>1</v>
+      </c>
+      <c r="AM63">
         <v>777500</v>
       </c>
     </row>
-    <row r="64" spans="1:36">
+    <row r="64" spans="1:39">
       <c r="A64" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -7589,15 +8165,24 @@
         <v>0.9902632412736856</v>
       </c>
       <c r="AI64">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ64">
+        <v>0</v>
+      </c>
+      <c r="AK64">
+        <v>0</v>
+      </c>
+      <c r="AL64">
+        <v>1</v>
+      </c>
+      <c r="AM64">
         <v>304500</v>
       </c>
     </row>
-    <row r="65" spans="1:36">
+    <row r="65" spans="1:39">
       <c r="A65" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -7696,15 +8281,24 @@
         <v>0.9902632412736856</v>
       </c>
       <c r="AI65">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ65">
+        <v>0</v>
+      </c>
+      <c r="AK65">
+        <v>0</v>
+      </c>
+      <c r="AL65">
+        <v>1</v>
+      </c>
+      <c r="AM65">
         <v>182500</v>
       </c>
     </row>
-    <row r="66" spans="1:36">
+    <row r="66" spans="1:39">
       <c r="A66" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -7803,15 +8397,24 @@
         <v>0.9902632412736856</v>
       </c>
       <c r="AI66">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ66">
+        <v>0</v>
+      </c>
+      <c r="AK66">
+        <v>1</v>
+      </c>
+      <c r="AL66">
+        <v>1</v>
+      </c>
+      <c r="AM66">
         <v>731500</v>
       </c>
     </row>
-    <row r="67" spans="1:36">
+    <row r="67" spans="1:39">
       <c r="A67" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -7910,15 +8513,24 @@
         <v>0.9902632412736856</v>
       </c>
       <c r="AI67">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ67">
+        <v>0</v>
+      </c>
+      <c r="AK67">
+        <v>1</v>
+      </c>
+      <c r="AL67">
+        <v>1</v>
+      </c>
+      <c r="AM67">
         <v>703000</v>
       </c>
     </row>
-    <row r="68" spans="1:36">
+    <row r="68" spans="1:39">
       <c r="A68" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -8017,15 +8629,24 @@
         <v>0.9902632412736856</v>
       </c>
       <c r="AI68">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ68">
+        <v>0</v>
+      </c>
+      <c r="AK68">
+        <v>1</v>
+      </c>
+      <c r="AL68">
+        <v>1</v>
+      </c>
+      <c r="AM68">
         <v>518000</v>
       </c>
     </row>
-    <row r="69" spans="1:36">
+    <row r="69" spans="1:39">
       <c r="A69" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -8124,15 +8745,24 @@
         <v>0.9902632412736856</v>
       </c>
       <c r="AI69">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ69">
+        <v>0</v>
+      </c>
+      <c r="AK69">
+        <v>0</v>
+      </c>
+      <c r="AL69">
+        <v>1</v>
+      </c>
+      <c r="AM69">
         <v>119000</v>
       </c>
     </row>
-    <row r="70" spans="1:36">
+    <row r="70" spans="1:39">
       <c r="A70" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -8231,15 +8861,24 @@
         <v>0.9902632412736856</v>
       </c>
       <c r="AI70">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ70">
+        <v>0</v>
+      </c>
+      <c r="AK70">
+        <v>1</v>
+      </c>
+      <c r="AL70">
+        <v>1</v>
+      </c>
+      <c r="AM70">
         <v>937000</v>
       </c>
     </row>
-    <row r="71" spans="1:36">
+    <row r="71" spans="1:39">
       <c r="A71" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -8338,15 +8977,24 @@
         <v>0.9902632412736856</v>
       </c>
       <c r="AI71">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ71">
+        <v>0</v>
+      </c>
+      <c r="AK71">
+        <v>0</v>
+      </c>
+      <c r="AL71">
+        <v>1</v>
+      </c>
+      <c r="AM71">
         <v>846000</v>
       </c>
     </row>
-    <row r="72" spans="1:36">
+    <row r="72" spans="1:39">
       <c r="A72" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -8445,15 +9093,24 @@
         <v>0.9902632412736856</v>
       </c>
       <c r="AI72">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ72">
+        <v>0</v>
+      </c>
+      <c r="AK72">
+        <v>0</v>
+      </c>
+      <c r="AL72">
+        <v>1</v>
+      </c>
+      <c r="AM72">
         <v>362000</v>
       </c>
     </row>
-    <row r="73" spans="1:36">
+    <row r="73" spans="1:39">
       <c r="A73" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -8552,15 +9209,24 @@
         <v>0.9902632412736856</v>
       </c>
       <c r="AI73">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ73">
+        <v>0</v>
+      </c>
+      <c r="AK73">
+        <v>0</v>
+      </c>
+      <c r="AL73">
+        <v>1</v>
+      </c>
+      <c r="AM73">
         <v>1600</v>
       </c>
     </row>
-    <row r="74" spans="1:36">
+    <row r="74" spans="1:39">
       <c r="A74" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -8659,15 +9325,24 @@
         <v>0.9902632412736856</v>
       </c>
       <c r="AI74">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ74">
+        <v>0</v>
+      </c>
+      <c r="AK74">
+        <v>1</v>
+      </c>
+      <c r="AL74">
+        <v>1</v>
+      </c>
+      <c r="AM74">
         <v>414000</v>
       </c>
     </row>
-    <row r="75" spans="1:36">
+    <row r="75" spans="1:39">
       <c r="A75" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -8766,15 +9441,24 @@
         <v>0.9902632412736856</v>
       </c>
       <c r="AI75">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ75">
+        <v>0</v>
+      </c>
+      <c r="AK75">
+        <v>1</v>
+      </c>
+      <c r="AL75">
+        <v>1</v>
+      </c>
+      <c r="AM75">
         <v>659500</v>
       </c>
     </row>
-    <row r="76" spans="1:36">
+    <row r="76" spans="1:39">
       <c r="A76" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -8873,15 +9557,24 @@
         <v>0.9902632412736856</v>
       </c>
       <c r="AI76">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ76">
+        <v>0</v>
+      </c>
+      <c r="AK76">
+        <v>0</v>
+      </c>
+      <c r="AL76">
+        <v>1</v>
+      </c>
+      <c r="AM76">
         <v>6000</v>
       </c>
     </row>
-    <row r="77" spans="1:36">
+    <row r="77" spans="1:39">
       <c r="A77" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -8980,15 +9673,24 @@
         <v>0.9902632412736856</v>
       </c>
       <c r="AI77">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ77">
+        <v>0</v>
+      </c>
+      <c r="AK77">
+        <v>0</v>
+      </c>
+      <c r="AL77">
+        <v>1</v>
+      </c>
+      <c r="AM77">
         <v>38500</v>
       </c>
     </row>
-    <row r="78" spans="1:36">
+    <row r="78" spans="1:39">
       <c r="A78" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -9087,15 +9789,24 @@
         <v>0.9902632412736856</v>
       </c>
       <c r="AI78">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ78">
+        <v>0</v>
+      </c>
+      <c r="AK78">
+        <v>0</v>
+      </c>
+      <c r="AL78">
+        <v>1</v>
+      </c>
+      <c r="AM78">
         <v>700</v>
       </c>
     </row>
-    <row r="79" spans="1:36">
+    <row r="79" spans="1:39">
       <c r="A79" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -9194,15 +9905,24 @@
         <v>0.9840679873860156</v>
       </c>
       <c r="AI79">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ79">
+        <v>0</v>
+      </c>
+      <c r="AK79">
+        <v>0</v>
+      </c>
+      <c r="AL79">
+        <v>1</v>
+      </c>
+      <c r="AM79">
         <v>2775300</v>
       </c>
     </row>
-    <row r="80" spans="1:36">
+    <row r="80" spans="1:39">
       <c r="A80" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -9301,15 +10021,24 @@
         <v>0.9840679873860156</v>
       </c>
       <c r="AI80">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ80">
+        <v>0</v>
+      </c>
+      <c r="AK80">
+        <v>0</v>
+      </c>
+      <c r="AL80">
+        <v>1</v>
+      </c>
+      <c r="AM80">
         <v>1113970</v>
       </c>
     </row>
-    <row r="81" spans="1:36">
+    <row r="81" spans="1:39">
       <c r="A81" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -9408,15 +10137,24 @@
         <v>0.9840679873860156</v>
       </c>
       <c r="AI81">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ81">
+        <v>0</v>
+      </c>
+      <c r="AK81">
+        <v>1</v>
+      </c>
+      <c r="AL81">
+        <v>1</v>
+      </c>
+      <c r="AM81">
         <v>2276760</v>
       </c>
     </row>
-    <row r="82" spans="1:36">
+    <row r="82" spans="1:39">
       <c r="A82" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B82">
         <v>1</v>
@@ -9515,15 +10253,24 @@
         <v>0.9840679873860156</v>
       </c>
       <c r="AI82">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ82">
+        <v>0</v>
+      </c>
+      <c r="AK82">
+        <v>0</v>
+      </c>
+      <c r="AL82">
+        <v>1</v>
+      </c>
+      <c r="AM82">
         <v>1406205</v>
       </c>
     </row>
-    <row r="83" spans="1:36">
+    <row r="83" spans="1:39">
       <c r="A83" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -9622,15 +10369,24 @@
         <v>0.9840679873860156</v>
       </c>
       <c r="AI83">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ83">
+        <v>0</v>
+      </c>
+      <c r="AK83">
+        <v>0</v>
+      </c>
+      <c r="AL83">
+        <v>1</v>
+      </c>
+      <c r="AM83">
         <v>906203</v>
       </c>
     </row>
-    <row r="84" spans="1:36">
+    <row r="84" spans="1:39">
       <c r="A84" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -9729,15 +10485,24 @@
         <v>0.9840679873860156</v>
       </c>
       <c r="AI84">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ84">
+        <v>0</v>
+      </c>
+      <c r="AK84">
+        <v>1</v>
+      </c>
+      <c r="AL84">
+        <v>1</v>
+      </c>
+      <c r="AM84">
         <v>817018</v>
       </c>
     </row>
-    <row r="85" spans="1:36">
+    <row r="85" spans="1:39">
       <c r="A85" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -9836,15 +10601,24 @@
         <v>0.9840679873860156</v>
       </c>
       <c r="AI85">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ85">
+        <v>0</v>
+      </c>
+      <c r="AK85">
+        <v>1</v>
+      </c>
+      <c r="AL85">
+        <v>1</v>
+      </c>
+      <c r="AM85">
         <v>4538513</v>
       </c>
     </row>
-    <row r="86" spans="1:36">
+    <row r="86" spans="1:39">
       <c r="A86" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -9943,15 +10717,24 @@
         <v>0.9840679873860156</v>
       </c>
       <c r="AI86">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ86">
+        <v>0</v>
+      </c>
+      <c r="AK86">
+        <v>1</v>
+      </c>
+      <c r="AL86">
+        <v>1</v>
+      </c>
+      <c r="AM86">
         <v>1574363</v>
       </c>
     </row>
-    <row r="87" spans="1:36">
+    <row r="87" spans="1:39">
       <c r="A87" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -10050,15 +10833,24 @@
         <v>0.9840679873860156</v>
       </c>
       <c r="AI87">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ87">
+        <v>0</v>
+      </c>
+      <c r="AK87">
+        <v>0</v>
+      </c>
+      <c r="AL87">
+        <v>1</v>
+      </c>
+      <c r="AM87">
         <v>434843</v>
       </c>
     </row>
-    <row r="88" spans="1:36">
+    <row r="88" spans="1:39">
       <c r="A88" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -10157,15 +10949,24 @@
         <v>0.9840679873860156</v>
       </c>
       <c r="AI88">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ88">
+        <v>0</v>
+      </c>
+      <c r="AK88">
+        <v>1</v>
+      </c>
+      <c r="AL88">
+        <v>1</v>
+      </c>
+      <c r="AM88">
         <v>1800400</v>
       </c>
     </row>
-    <row r="89" spans="1:36">
+    <row r="89" spans="1:39">
       <c r="A89" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -10264,15 +11065,24 @@
         <v>0.9840679873860156</v>
       </c>
       <c r="AI89">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ89">
+        <v>0</v>
+      </c>
+      <c r="AK89">
+        <v>0</v>
+      </c>
+      <c r="AL89">
+        <v>1</v>
+      </c>
+      <c r="AM89">
         <v>1607912</v>
       </c>
     </row>
-    <row r="90" spans="1:36">
+    <row r="90" spans="1:39">
       <c r="A90" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B90">
         <v>1</v>
@@ -10371,15 +11181,24 @@
         <v>0.9840679873860156</v>
       </c>
       <c r="AI90">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ90">
+        <v>0</v>
+      </c>
+      <c r="AK90">
+        <v>0</v>
+      </c>
+      <c r="AL90">
+        <v>1</v>
+      </c>
+      <c r="AM90">
         <v>1836058</v>
       </c>
     </row>
-    <row r="91" spans="1:36">
+    <row r="91" spans="1:39">
       <c r="A91" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -10478,15 +11297,24 @@
         <v>0.9840679873860156</v>
       </c>
       <c r="AI91">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ91">
+        <v>0</v>
+      </c>
+      <c r="AK91">
+        <v>1</v>
+      </c>
+      <c r="AL91">
+        <v>1</v>
+      </c>
+      <c r="AM91">
         <v>1532517</v>
       </c>
     </row>
-    <row r="92" spans="1:36">
+    <row r="92" spans="1:39">
       <c r="A92" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -10585,9 +11413,18 @@
         <v>0.9840679873860156</v>
       </c>
       <c r="AI92">
-        <v>1</v>
+        <v>1994</v>
       </c>
       <c r="AJ92">
+        <v>0</v>
+      </c>
+      <c r="AK92">
+        <v>1</v>
+      </c>
+      <c r="AL92">
+        <v>1</v>
+      </c>
+      <c r="AM92">
         <v>1099310</v>
       </c>
     </row>

--- a/output/educo.xlsx
+++ b/output/educo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
   <si>
     <t>Pais-Año</t>
   </si>
@@ -61,10 +61,10 @@
     <t>Private_Funds_Cuotas</t>
   </si>
   <si>
-    <t>Public_Funds_Donations</t>
-  </si>
-  <si>
-    <t>Public_Funds_Companies</t>
+    <t>Private_Funds_Donations</t>
+  </si>
+  <si>
+    <t>Private_Funds_Companies</t>
   </si>
   <si>
     <t>Fondos_Privados_Venta</t>
@@ -118,6 +118,9 @@
     <t>Proporcion_Fondos_Privados</t>
   </si>
   <si>
+    <t>Proporcion_Fondos_MAE</t>
+  </si>
+  <si>
     <t>Anyo_ONG</t>
   </si>
   <si>
@@ -125,6 +128,9 @@
   </si>
   <si>
     <t>Colony</t>
+  </si>
+  <si>
+    <t>Delegacion</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -744,7 +750,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM92"/>
+  <dimension ref="A1:AO92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -753,7 +759,7 @@
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -871,10 +877,16 @@
       <c r="AM1" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="2" spans="1:39">
+    <row r="2" spans="1:41">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -973,24 +985,30 @@
         <v>0.05598924987170031</v>
       </c>
       <c r="AI2">
+        <v>0.4999227029848</v>
+      </c>
+      <c r="AJ2">
         <v>1994</v>
       </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
       <c r="AK2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL2">
         <v>1</v>
       </c>
       <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>1</v>
+      </c>
+      <c r="AO2">
         <v>748007</v>
       </c>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" spans="1:41">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1089,24 +1107,30 @@
         <v>0.05598924987170031</v>
       </c>
       <c r="AI3">
+        <v>0.4999227029848</v>
+      </c>
+      <c r="AJ3">
         <v>1994</v>
       </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
       <c r="AK3">
         <v>0</v>
       </c>
       <c r="AL3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>1</v>
+      </c>
+      <c r="AO3">
         <v>115158.2222222222</v>
       </c>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:41">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1205,24 +1229,30 @@
         <v>0.05598924987170031</v>
       </c>
       <c r="AI4">
+        <v>0.4999227029848</v>
+      </c>
+      <c r="AJ4">
         <v>1994</v>
       </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
       <c r="AK4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL4">
         <v>1</v>
       </c>
       <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>1</v>
+      </c>
+      <c r="AO4">
         <v>115158.2222222222</v>
       </c>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:41">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1321,24 +1351,30 @@
         <v>0.05598924987170031</v>
       </c>
       <c r="AI5">
+        <v>0.4999227029848</v>
+      </c>
+      <c r="AJ5">
         <v>1994</v>
       </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
       <c r="AK5">
         <v>0</v>
       </c>
       <c r="AL5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>1</v>
+      </c>
+      <c r="AO5">
         <v>295350</v>
       </c>
     </row>
-    <row r="6" spans="1:39">
+    <row r="6" spans="1:41">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1437,24 +1473,30 @@
         <v>0.05598924987170031</v>
       </c>
       <c r="AI6">
+        <v>0.4999227029848</v>
+      </c>
+      <c r="AJ6">
         <v>1994</v>
       </c>
-      <c r="AJ6">
-        <v>0</v>
-      </c>
       <c r="AK6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL6">
         <v>1</v>
       </c>
       <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>1</v>
+      </c>
+      <c r="AO6">
         <v>115158.2222222222</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:41">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1553,24 +1595,30 @@
         <v>0.05598924987170031</v>
       </c>
       <c r="AI7">
+        <v>0.4999227029848</v>
+      </c>
+      <c r="AJ7">
         <v>1994</v>
       </c>
-      <c r="AJ7">
-        <v>0</v>
-      </c>
       <c r="AK7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL7">
         <v>1</v>
       </c>
       <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>1</v>
+      </c>
+      <c r="AO7">
         <v>159219</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
+    <row r="8" spans="1:41">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1669,24 +1717,30 @@
         <v>0.05598924987170031</v>
       </c>
       <c r="AI8">
+        <v>0.4999227029848</v>
+      </c>
+      <c r="AJ8">
         <v>1994</v>
       </c>
-      <c r="AJ8">
-        <v>0</v>
-      </c>
       <c r="AK8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL8">
         <v>1</v>
       </c>
       <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>1</v>
+      </c>
+      <c r="AO8">
         <v>363249</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
+    <row r="9" spans="1:41">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1785,24 +1839,30 @@
         <v>0.05598924987170031</v>
       </c>
       <c r="AI9">
+        <v>0.4999227029848</v>
+      </c>
+      <c r="AJ9">
         <v>1994</v>
       </c>
-      <c r="AJ9">
-        <v>0</v>
-      </c>
       <c r="AK9">
         <v>0</v>
       </c>
       <c r="AL9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>1</v>
+      </c>
+      <c r="AO9">
         <v>115158.2222222222</v>
       </c>
     </row>
-    <row r="10" spans="1:39">
+    <row r="10" spans="1:41">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1901,24 +1961,30 @@
         <v>0.05598924987170031</v>
       </c>
       <c r="AI10">
+        <v>0.4999227029848</v>
+      </c>
+      <c r="AJ10">
         <v>1994</v>
       </c>
-      <c r="AJ10">
-        <v>0</v>
-      </c>
       <c r="AK10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL10">
         <v>1</v>
       </c>
       <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>1</v>
+      </c>
+      <c r="AO10">
         <v>115158.2222222222</v>
       </c>
     </row>
-    <row r="11" spans="1:39">
+    <row r="11" spans="1:41">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2017,24 +2083,30 @@
         <v>0.05598924987170031</v>
       </c>
       <c r="AI11">
+        <v>0.4999227029848</v>
+      </c>
+      <c r="AJ11">
         <v>1994</v>
       </c>
-      <c r="AJ11">
-        <v>0</v>
-      </c>
       <c r="AK11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL11">
         <v>1</v>
       </c>
       <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
+        <v>1</v>
+      </c>
+      <c r="AO11">
         <v>565884</v>
       </c>
     </row>
-    <row r="12" spans="1:39">
+    <row r="12" spans="1:41">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2133,24 +2205,30 @@
         <v>0.05598924987170031</v>
       </c>
       <c r="AI12">
+        <v>0.4999227029848</v>
+      </c>
+      <c r="AJ12">
         <v>1994</v>
       </c>
-      <c r="AJ12">
-        <v>0</v>
-      </c>
       <c r="AK12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL12">
         <v>1</v>
       </c>
       <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AN12">
+        <v>1</v>
+      </c>
+      <c r="AO12">
         <v>328627.6666666667</v>
       </c>
     </row>
-    <row r="13" spans="1:39">
+    <row r="13" spans="1:41">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2249,24 +2327,30 @@
         <v>0.05598924987170031</v>
       </c>
       <c r="AI13">
+        <v>0.4999227029848</v>
+      </c>
+      <c r="AJ13">
         <v>1994</v>
       </c>
-      <c r="AJ13">
-        <v>0</v>
-      </c>
       <c r="AK13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL13">
         <v>1</v>
       </c>
       <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AN13">
+        <v>1</v>
+      </c>
+      <c r="AO13">
         <v>602999</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
+    <row r="14" spans="1:41">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2365,24 +2449,30 @@
         <v>0.04798204684213208</v>
       </c>
       <c r="AI14">
+        <v>0.5691614660851093</v>
+      </c>
+      <c r="AJ14">
         <v>1994</v>
       </c>
-      <c r="AJ14">
-        <v>0</v>
-      </c>
       <c r="AK14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL14">
         <v>1</v>
       </c>
       <c r="AM14">
+        <v>0</v>
+      </c>
+      <c r="AN14">
+        <v>1</v>
+      </c>
+      <c r="AO14">
         <v>932808</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
+    <row r="15" spans="1:41">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -2481,24 +2571,30 @@
         <v>0.04798204684213208</v>
       </c>
       <c r="AI15">
+        <v>0.5691614660851093</v>
+      </c>
+      <c r="AJ15">
         <v>1994</v>
       </c>
-      <c r="AJ15">
-        <v>0</v>
-      </c>
       <c r="AK15">
         <v>0</v>
       </c>
       <c r="AL15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM15">
+        <v>0</v>
+      </c>
+      <c r="AN15">
+        <v>1</v>
+      </c>
+      <c r="AO15">
         <v>72358.66666666667</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
+    <row r="16" spans="1:41">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -2597,24 +2693,30 @@
         <v>0.04798204684213208</v>
       </c>
       <c r="AI16">
+        <v>0.5691614660851093</v>
+      </c>
+      <c r="AJ16">
         <v>1994</v>
       </c>
-      <c r="AJ16">
-        <v>0</v>
-      </c>
       <c r="AK16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL16">
         <v>1</v>
       </c>
       <c r="AM16">
+        <v>0</v>
+      </c>
+      <c r="AN16">
+        <v>1</v>
+      </c>
+      <c r="AO16">
         <v>72358.66666666667</v>
       </c>
     </row>
-    <row r="17" spans="1:39">
+    <row r="17" spans="1:41">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2713,24 +2815,30 @@
         <v>0.04798204684213208</v>
       </c>
       <c r="AI17">
+        <v>0.5691614660851093</v>
+      </c>
+      <c r="AJ17">
         <v>1994</v>
       </c>
-      <c r="AJ17">
-        <v>0</v>
-      </c>
       <c r="AK17">
         <v>0</v>
       </c>
       <c r="AL17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM17">
+        <v>0</v>
+      </c>
+      <c r="AN17">
+        <v>1</v>
+      </c>
+      <c r="AO17">
         <v>554452</v>
       </c>
     </row>
-    <row r="18" spans="1:39">
+    <row r="18" spans="1:41">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2829,24 +2937,30 @@
         <v>0.04798204684213208</v>
       </c>
       <c r="AI18">
+        <v>0.5691614660851093</v>
+      </c>
+      <c r="AJ18">
         <v>1994</v>
       </c>
-      <c r="AJ18">
-        <v>0</v>
-      </c>
       <c r="AK18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL18">
         <v>1</v>
       </c>
       <c r="AM18">
+        <v>0</v>
+      </c>
+      <c r="AN18">
+        <v>1</v>
+      </c>
+      <c r="AO18">
         <v>72358.66666666667</v>
       </c>
     </row>
-    <row r="19" spans="1:39">
+    <row r="19" spans="1:41">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -2945,24 +3059,30 @@
         <v>0.04798204684213208</v>
       </c>
       <c r="AI19">
+        <v>0.5691614660851093</v>
+      </c>
+      <c r="AJ19">
         <v>1994</v>
       </c>
-      <c r="AJ19">
-        <v>0</v>
-      </c>
       <c r="AK19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL19">
         <v>1</v>
       </c>
       <c r="AM19">
+        <v>0</v>
+      </c>
+      <c r="AN19">
+        <v>1</v>
+      </c>
+      <c r="AO19">
         <v>296915</v>
       </c>
     </row>
-    <row r="20" spans="1:39">
+    <row r="20" spans="1:41">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -3061,24 +3181,30 @@
         <v>0.04798204684213208</v>
       </c>
       <c r="AI20">
+        <v>0.5691614660851093</v>
+      </c>
+      <c r="AJ20">
         <v>1994</v>
       </c>
-      <c r="AJ20">
-        <v>0</v>
-      </c>
       <c r="AK20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL20">
         <v>1</v>
       </c>
       <c r="AM20">
+        <v>0</v>
+      </c>
+      <c r="AN20">
+        <v>1</v>
+      </c>
+      <c r="AO20">
         <v>335344</v>
       </c>
     </row>
-    <row r="21" spans="1:39">
+    <row r="21" spans="1:41">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -3177,24 +3303,30 @@
         <v>0.04798204684213208</v>
       </c>
       <c r="AI21">
+        <v>0.5691614660851093</v>
+      </c>
+      <c r="AJ21">
         <v>1994</v>
       </c>
-      <c r="AJ21">
-        <v>0</v>
-      </c>
       <c r="AK21">
         <v>0</v>
       </c>
       <c r="AL21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM21">
+        <v>0</v>
+      </c>
+      <c r="AN21">
+        <v>1</v>
+      </c>
+      <c r="AO21">
         <v>72358.66666666667</v>
       </c>
     </row>
-    <row r="22" spans="1:39">
+    <row r="22" spans="1:41">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -3293,24 +3425,30 @@
         <v>0.04798204684213208</v>
       </c>
       <c r="AI22">
+        <v>0.5691614660851093</v>
+      </c>
+      <c r="AJ22">
         <v>1994</v>
       </c>
-      <c r="AJ22">
-        <v>0</v>
-      </c>
       <c r="AK22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL22">
         <v>1</v>
       </c>
       <c r="AM22">
+        <v>0</v>
+      </c>
+      <c r="AN22">
+        <v>1</v>
+      </c>
+      <c r="AO22">
         <v>72358.66666666667</v>
       </c>
     </row>
-    <row r="23" spans="1:39">
+    <row r="23" spans="1:41">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -3409,24 +3547,30 @@
         <v>0.04798204684213208</v>
       </c>
       <c r="AI23">
+        <v>0.5691614660851093</v>
+      </c>
+      <c r="AJ23">
         <v>1994</v>
       </c>
-      <c r="AJ23">
-        <v>0</v>
-      </c>
       <c r="AK23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL23">
         <v>1</v>
       </c>
       <c r="AM23">
+        <v>0</v>
+      </c>
+      <c r="AN23">
+        <v>1</v>
+      </c>
+      <c r="AO23">
         <v>1361294</v>
       </c>
     </row>
-    <row r="24" spans="1:39">
+    <row r="24" spans="1:41">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -3525,24 +3669,30 @@
         <v>0.04798204684213208</v>
       </c>
       <c r="AI24">
+        <v>0.5691614660851093</v>
+      </c>
+      <c r="AJ24">
         <v>1994</v>
       </c>
-      <c r="AJ24">
-        <v>0</v>
-      </c>
       <c r="AK24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL24">
         <v>1</v>
       </c>
       <c r="AM24">
+        <v>0</v>
+      </c>
+      <c r="AN24">
+        <v>1</v>
+      </c>
+      <c r="AO24">
         <v>365538</v>
       </c>
     </row>
-    <row r="25" spans="1:39">
+    <row r="25" spans="1:41">
       <c r="A25" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -3641,24 +3791,30 @@
         <v>0.04798204684213208</v>
       </c>
       <c r="AI25">
+        <v>0.5691614660851093</v>
+      </c>
+      <c r="AJ25">
         <v>1994</v>
       </c>
-      <c r="AJ25">
-        <v>0</v>
-      </c>
       <c r="AK25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL25">
         <v>1</v>
       </c>
       <c r="AM25">
+        <v>0</v>
+      </c>
+      <c r="AN25">
+        <v>1</v>
+      </c>
+      <c r="AO25">
         <v>487623</v>
       </c>
     </row>
-    <row r="26" spans="1:39">
+    <row r="26" spans="1:41">
       <c r="A26" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -3757,24 +3913,30 @@
         <v>0.02872659121361325</v>
       </c>
       <c r="AI26">
+        <v>0.6344816404737499</v>
+      </c>
+      <c r="AJ26">
         <v>1994</v>
       </c>
-      <c r="AJ26">
-        <v>0</v>
-      </c>
       <c r="AK26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL26">
         <v>1</v>
       </c>
       <c r="AM26">
+        <v>0</v>
+      </c>
+      <c r="AN26">
+        <v>1</v>
+      </c>
+      <c r="AO26">
         <v>330805</v>
       </c>
     </row>
-    <row r="27" spans="1:39">
+    <row r="27" spans="1:41">
       <c r="A27" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -3873,24 +4035,30 @@
         <v>0.02872659121361325</v>
       </c>
       <c r="AI27">
+        <v>0.6344816404737499</v>
+      </c>
+      <c r="AJ27">
         <v>1994</v>
       </c>
-      <c r="AJ27">
-        <v>0</v>
-      </c>
       <c r="AK27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL27">
         <v>1</v>
       </c>
       <c r="AM27">
+        <v>0</v>
+      </c>
+      <c r="AN27">
+        <v>1</v>
+      </c>
+      <c r="AO27">
         <v>674878</v>
       </c>
     </row>
-    <row r="28" spans="1:39">
+    <row r="28" spans="1:41">
       <c r="A28" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -3989,24 +4157,30 @@
         <v>0.02872659121361325</v>
       </c>
       <c r="AI28">
+        <v>0.6344816404737499</v>
+      </c>
+      <c r="AJ28">
         <v>1994</v>
       </c>
-      <c r="AJ28">
-        <v>0</v>
-      </c>
       <c r="AK28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL28">
         <v>1</v>
       </c>
       <c r="AM28">
+        <v>0</v>
+      </c>
+      <c r="AN28">
+        <v>1</v>
+      </c>
+      <c r="AO28">
         <v>361690</v>
       </c>
     </row>
-    <row r="29" spans="1:39">
+    <row r="29" spans="1:41">
       <c r="A29" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -4105,24 +4279,30 @@
         <v>0.02872659121361325</v>
       </c>
       <c r="AI29">
+        <v>0.6344816404737499</v>
+      </c>
+      <c r="AJ29">
         <v>1994</v>
       </c>
-      <c r="AJ29">
-        <v>0</v>
-      </c>
       <c r="AK29">
         <v>0</v>
       </c>
       <c r="AL29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM29">
+        <v>0</v>
+      </c>
+      <c r="AN29">
+        <v>1</v>
+      </c>
+      <c r="AO29">
         <v>301829</v>
       </c>
     </row>
-    <row r="30" spans="1:39">
+    <row r="30" spans="1:41">
       <c r="A30" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -4221,24 +4401,30 @@
         <v>0.02872659121361325</v>
       </c>
       <c r="AI30">
+        <v>0.6344816404737499</v>
+      </c>
+      <c r="AJ30">
         <v>1994</v>
       </c>
-      <c r="AJ30">
-        <v>0</v>
-      </c>
       <c r="AK30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL30">
         <v>1</v>
       </c>
       <c r="AM30">
+        <v>0</v>
+      </c>
+      <c r="AN30">
+        <v>1</v>
+      </c>
+      <c r="AO30">
         <v>115304</v>
       </c>
     </row>
-    <row r="31" spans="1:39">
+    <row r="31" spans="1:41">
       <c r="A31" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -4337,24 +4523,30 @@
         <v>0.02872659121361325</v>
       </c>
       <c r="AI31">
+        <v>0.6344816404737499</v>
+      </c>
+      <c r="AJ31">
         <v>1994</v>
       </c>
-      <c r="AJ31">
-        <v>0</v>
-      </c>
       <c r="AK31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL31">
         <v>1</v>
       </c>
       <c r="AM31">
+        <v>0</v>
+      </c>
+      <c r="AN31">
+        <v>1</v>
+      </c>
+      <c r="AO31">
         <v>479067</v>
       </c>
     </row>
-    <row r="32" spans="1:39">
+    <row r="32" spans="1:41">
       <c r="A32" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -4453,24 +4645,30 @@
         <v>0.02872659121361325</v>
       </c>
       <c r="AI32">
+        <v>0.6344816404737499</v>
+      </c>
+      <c r="AJ32">
         <v>1994</v>
       </c>
-      <c r="AJ32">
-        <v>0</v>
-      </c>
       <c r="AK32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL32">
         <v>1</v>
       </c>
       <c r="AM32">
+        <v>0</v>
+      </c>
+      <c r="AN32">
+        <v>1</v>
+      </c>
+      <c r="AO32">
         <v>581907</v>
       </c>
     </row>
-    <row r="33" spans="1:39">
+    <row r="33" spans="1:41">
       <c r="A33" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -4569,24 +4767,30 @@
         <v>0.1914123322570419</v>
       </c>
       <c r="AI33">
+        <v>0.4730036247081556</v>
+      </c>
+      <c r="AJ33">
         <v>1994</v>
       </c>
-      <c r="AJ33">
-        <v>0</v>
-      </c>
       <c r="AK33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL33">
         <v>1</v>
       </c>
       <c r="AM33">
+        <v>0</v>
+      </c>
+      <c r="AN33">
+        <v>1</v>
+      </c>
+      <c r="AO33">
         <v>267680.5</v>
       </c>
     </row>
-    <row r="34" spans="1:39">
+    <row r="34" spans="1:41">
       <c r="A34" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -4685,24 +4889,30 @@
         <v>0.1914123322570419</v>
       </c>
       <c r="AI34">
+        <v>0.4730036247081556</v>
+      </c>
+      <c r="AJ34">
         <v>1994</v>
       </c>
-      <c r="AJ34">
-        <v>0</v>
-      </c>
       <c r="AK34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL34">
         <v>1</v>
       </c>
       <c r="AM34">
+        <v>0</v>
+      </c>
+      <c r="AN34">
+        <v>1</v>
+      </c>
+      <c r="AO34">
         <v>71965.5</v>
       </c>
     </row>
-    <row r="35" spans="1:39">
+    <row r="35" spans="1:41">
       <c r="A35" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -4801,24 +5011,30 @@
         <v>0.1914123322570419</v>
       </c>
       <c r="AI35">
+        <v>0.4730036247081556</v>
+      </c>
+      <c r="AJ35">
         <v>1994</v>
       </c>
-      <c r="AJ35">
-        <v>0</v>
-      </c>
       <c r="AK35">
         <v>0</v>
       </c>
       <c r="AL35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM35">
+        <v>0</v>
+      </c>
+      <c r="AN35">
+        <v>1</v>
+      </c>
+      <c r="AO35">
         <v>78484.5</v>
       </c>
     </row>
-    <row r="36" spans="1:39">
+    <row r="36" spans="1:41">
       <c r="A36" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -4917,24 +5133,30 @@
         <v>0.1914123322570419</v>
       </c>
       <c r="AI36">
+        <v>0.4730036247081556</v>
+      </c>
+      <c r="AJ36">
         <v>1994</v>
       </c>
-      <c r="AJ36">
-        <v>0</v>
-      </c>
       <c r="AK36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL36">
         <v>1</v>
       </c>
       <c r="AM36">
+        <v>0</v>
+      </c>
+      <c r="AN36">
+        <v>1</v>
+      </c>
+      <c r="AO36">
         <v>147654</v>
       </c>
     </row>
-    <row r="37" spans="1:39">
+    <row r="37" spans="1:41">
       <c r="A37" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -5033,24 +5255,30 @@
         <v>0.1914123322570419</v>
       </c>
       <c r="AI37">
+        <v>0.4730036247081556</v>
+      </c>
+      <c r="AJ37">
         <v>1994</v>
       </c>
-      <c r="AJ37">
-        <v>0</v>
-      </c>
       <c r="AK37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL37">
         <v>1</v>
       </c>
       <c r="AM37">
+        <v>0</v>
+      </c>
+      <c r="AN37">
+        <v>1</v>
+      </c>
+      <c r="AO37">
         <v>158600.5</v>
       </c>
     </row>
-    <row r="38" spans="1:39">
+    <row r="38" spans="1:41">
       <c r="A38" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -5149,24 +5377,30 @@
         <v>0.2391400796997132</v>
       </c>
       <c r="AI38">
+        <v>0.4222375994855786</v>
+      </c>
+      <c r="AJ38">
         <v>1994</v>
       </c>
-      <c r="AJ38">
-        <v>0</v>
-      </c>
       <c r="AK38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL38">
         <v>1</v>
       </c>
       <c r="AM38">
+        <v>0</v>
+      </c>
+      <c r="AN38">
+        <v>1</v>
+      </c>
+      <c r="AO38">
         <v>267680.5</v>
       </c>
     </row>
-    <row r="39" spans="1:39">
+    <row r="39" spans="1:41">
       <c r="A39" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -5265,24 +5499,30 @@
         <v>0.2391400796997132</v>
       </c>
       <c r="AI39">
+        <v>0.4222375994855786</v>
+      </c>
+      <c r="AJ39">
         <v>1994</v>
       </c>
-      <c r="AJ39">
-        <v>0</v>
-      </c>
       <c r="AK39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL39">
         <v>1</v>
       </c>
       <c r="AM39">
+        <v>0</v>
+      </c>
+      <c r="AN39">
+        <v>1</v>
+      </c>
+      <c r="AO39">
         <v>71965.5</v>
       </c>
     </row>
-    <row r="40" spans="1:39">
+    <row r="40" spans="1:41">
       <c r="A40" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -5381,24 +5621,30 @@
         <v>0.2391400796997132</v>
       </c>
       <c r="AI40">
+        <v>0.4222375994855786</v>
+      </c>
+      <c r="AJ40">
         <v>1994</v>
       </c>
-      <c r="AJ40">
-        <v>0</v>
-      </c>
       <c r="AK40">
         <v>0</v>
       </c>
       <c r="AL40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM40">
+        <v>0</v>
+      </c>
+      <c r="AN40">
+        <v>1</v>
+      </c>
+      <c r="AO40">
         <v>78484.5</v>
       </c>
     </row>
-    <row r="41" spans="1:39">
+    <row r="41" spans="1:41">
       <c r="A41" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -5497,24 +5743,30 @@
         <v>0.2391400796997132</v>
       </c>
       <c r="AI41">
+        <v>0.4222375994855786</v>
+      </c>
+      <c r="AJ41">
         <v>1994</v>
       </c>
-      <c r="AJ41">
-        <v>0</v>
-      </c>
       <c r="AK41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL41">
         <v>1</v>
       </c>
       <c r="AM41">
+        <v>0</v>
+      </c>
+      <c r="AN41">
+        <v>1</v>
+      </c>
+      <c r="AO41">
         <v>147654</v>
       </c>
     </row>
-    <row r="42" spans="1:39">
+    <row r="42" spans="1:41">
       <c r="A42" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -5613,24 +5865,30 @@
         <v>0.2391400796997132</v>
       </c>
       <c r="AI42">
+        <v>0.4222375994855786</v>
+      </c>
+      <c r="AJ42">
         <v>1994</v>
       </c>
-      <c r="AJ42">
-        <v>0</v>
-      </c>
       <c r="AK42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL42">
         <v>1</v>
       </c>
       <c r="AM42">
+        <v>0</v>
+      </c>
+      <c r="AN42">
+        <v>1</v>
+      </c>
+      <c r="AO42">
         <v>158600.5</v>
       </c>
     </row>
-    <row r="43" spans="1:39">
+    <row r="43" spans="1:41">
       <c r="A43" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -5687,7 +5945,7 @@
         <v>0</v>
       </c>
       <c r="T43">
-        <v>26009554</v>
+        <v>26016569</v>
       </c>
       <c r="U43">
         <v>123</v>
@@ -5723,30 +5981,36 @@
         <v>0</v>
       </c>
       <c r="AG43">
-        <v>26011831</v>
+        <v>26018846</v>
       </c>
       <c r="AH43">
-        <v>0.999912462909666</v>
+        <v>0.9999124865107392</v>
       </c>
       <c r="AI43">
+        <v>0</v>
+      </c>
+      <c r="AJ43">
         <v>1994</v>
       </c>
-      <c r="AJ43">
-        <v>0</v>
-      </c>
       <c r="AK43">
         <v>0</v>
       </c>
       <c r="AL43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM43">
+        <v>1</v>
+      </c>
+      <c r="AN43">
+        <v>1</v>
+      </c>
+      <c r="AO43">
         <v>396500</v>
       </c>
     </row>
-    <row r="44" spans="1:39">
+    <row r="44" spans="1:41">
       <c r="A44" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -5803,7 +6067,7 @@
         <v>0</v>
       </c>
       <c r="T44">
-        <v>26009554</v>
+        <v>26016569</v>
       </c>
       <c r="U44">
         <v>123</v>
@@ -5839,30 +6103,36 @@
         <v>0</v>
       </c>
       <c r="AG44">
-        <v>26011831</v>
+        <v>26018846</v>
       </c>
       <c r="AH44">
-        <v>0.999912462909666</v>
+        <v>0.9999124865107392</v>
       </c>
       <c r="AI44">
+        <v>0</v>
+      </c>
+      <c r="AJ44">
         <v>1994</v>
       </c>
-      <c r="AJ44">
-        <v>0</v>
-      </c>
       <c r="AK44">
         <v>0</v>
       </c>
       <c r="AL44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM44">
+        <v>1</v>
+      </c>
+      <c r="AN44">
+        <v>1</v>
+      </c>
+      <c r="AO44">
         <v>229500</v>
       </c>
     </row>
-    <row r="45" spans="1:39">
+    <row r="45" spans="1:41">
       <c r="A45" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -5919,7 +6189,7 @@
         <v>0</v>
       </c>
       <c r="T45">
-        <v>26009554</v>
+        <v>26016569</v>
       </c>
       <c r="U45">
         <v>123</v>
@@ -5955,30 +6225,36 @@
         <v>10602689</v>
       </c>
       <c r="AG45">
-        <v>26011831</v>
+        <v>26018846</v>
       </c>
       <c r="AH45">
-        <v>0.999912462909666</v>
+        <v>0.9999124865107392</v>
       </c>
       <c r="AI45">
+        <v>0</v>
+      </c>
+      <c r="AJ45">
         <v>1994</v>
       </c>
-      <c r="AJ45">
-        <v>0</v>
-      </c>
       <c r="AK45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL45">
         <v>1</v>
       </c>
       <c r="AM45">
+        <v>1</v>
+      </c>
+      <c r="AN45">
+        <v>1</v>
+      </c>
+      <c r="AO45">
         <v>777500</v>
       </c>
     </row>
-    <row r="46" spans="1:39">
+    <row r="46" spans="1:41">
       <c r="A46" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -6035,7 +6311,7 @@
         <v>0</v>
       </c>
       <c r="T46">
-        <v>26009554</v>
+        <v>26016569</v>
       </c>
       <c r="U46">
         <v>123</v>
@@ -6071,30 +6347,36 @@
         <v>0</v>
       </c>
       <c r="AG46">
-        <v>26011831</v>
+        <v>26018846</v>
       </c>
       <c r="AH46">
-        <v>0.999912462909666</v>
+        <v>0.9999124865107392</v>
       </c>
       <c r="AI46">
+        <v>0</v>
+      </c>
+      <c r="AJ46">
         <v>1994</v>
       </c>
-      <c r="AJ46">
-        <v>0</v>
-      </c>
       <c r="AK46">
         <v>0</v>
       </c>
       <c r="AL46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM46">
+        <v>1</v>
+      </c>
+      <c r="AN46">
+        <v>1</v>
+      </c>
+      <c r="AO46">
         <v>304500</v>
       </c>
     </row>
-    <row r="47" spans="1:39">
+    <row r="47" spans="1:41">
       <c r="A47" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -6151,7 +6433,7 @@
         <v>0</v>
       </c>
       <c r="T47">
-        <v>26009554</v>
+        <v>26016569</v>
       </c>
       <c r="U47">
         <v>123</v>
@@ -6187,30 +6469,36 @@
         <v>0</v>
       </c>
       <c r="AG47">
-        <v>26011831</v>
+        <v>26018846</v>
       </c>
       <c r="AH47">
-        <v>0.999912462909666</v>
+        <v>0.9999124865107392</v>
       </c>
       <c r="AI47">
+        <v>0</v>
+      </c>
+      <c r="AJ47">
         <v>1994</v>
       </c>
-      <c r="AJ47">
-        <v>0</v>
-      </c>
       <c r="AK47">
         <v>0</v>
       </c>
       <c r="AL47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM47">
+        <v>1</v>
+      </c>
+      <c r="AN47">
+        <v>1</v>
+      </c>
+      <c r="AO47">
         <v>182500</v>
       </c>
     </row>
-    <row r="48" spans="1:39">
+    <row r="48" spans="1:41">
       <c r="A48" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -6267,7 +6555,7 @@
         <v>0</v>
       </c>
       <c r="T48">
-        <v>26009554</v>
+        <v>26016569</v>
       </c>
       <c r="U48">
         <v>123</v>
@@ -6303,30 +6591,36 @@
         <v>6011154</v>
       </c>
       <c r="AG48">
-        <v>26011831</v>
+        <v>26018846</v>
       </c>
       <c r="AH48">
-        <v>0.999912462909666</v>
+        <v>0.9999124865107392</v>
       </c>
       <c r="AI48">
+        <v>0</v>
+      </c>
+      <c r="AJ48">
         <v>1994</v>
       </c>
-      <c r="AJ48">
-        <v>0</v>
-      </c>
       <c r="AK48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL48">
         <v>1</v>
       </c>
       <c r="AM48">
+        <v>1</v>
+      </c>
+      <c r="AN48">
+        <v>1</v>
+      </c>
+      <c r="AO48">
         <v>731500</v>
       </c>
     </row>
-    <row r="49" spans="1:39">
+    <row r="49" spans="1:41">
       <c r="A49" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -6383,7 +6677,7 @@
         <v>0</v>
       </c>
       <c r="T49">
-        <v>26009554</v>
+        <v>26016569</v>
       </c>
       <c r="U49">
         <v>123</v>
@@ -6419,30 +6713,36 @@
         <v>11105000</v>
       </c>
       <c r="AG49">
-        <v>26011831</v>
+        <v>26018846</v>
       </c>
       <c r="AH49">
-        <v>0.999912462909666</v>
+        <v>0.9999124865107392</v>
       </c>
       <c r="AI49">
+        <v>0</v>
+      </c>
+      <c r="AJ49">
         <v>1994</v>
       </c>
-      <c r="AJ49">
-        <v>0</v>
-      </c>
       <c r="AK49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL49">
         <v>1</v>
       </c>
       <c r="AM49">
+        <v>1</v>
+      </c>
+      <c r="AN49">
+        <v>1</v>
+      </c>
+      <c r="AO49">
         <v>703000</v>
       </c>
     </row>
-    <row r="50" spans="1:39">
+    <row r="50" spans="1:41">
       <c r="A50" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -6499,7 +6799,7 @@
         <v>0</v>
       </c>
       <c r="T50">
-        <v>26009554</v>
+        <v>26016569</v>
       </c>
       <c r="U50">
         <v>123</v>
@@ -6535,30 +6835,36 @@
         <v>8039920</v>
       </c>
       <c r="AG50">
-        <v>26011831</v>
+        <v>26018846</v>
       </c>
       <c r="AH50">
-        <v>0.999912462909666</v>
+        <v>0.9999124865107392</v>
       </c>
       <c r="AI50">
+        <v>0</v>
+      </c>
+      <c r="AJ50">
         <v>1994</v>
       </c>
-      <c r="AJ50">
-        <v>0</v>
-      </c>
       <c r="AK50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL50">
         <v>1</v>
       </c>
       <c r="AM50">
+        <v>1</v>
+      </c>
+      <c r="AN50">
+        <v>1</v>
+      </c>
+      <c r="AO50">
         <v>518000</v>
       </c>
     </row>
-    <row r="51" spans="1:39">
+    <row r="51" spans="1:41">
       <c r="A51" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -6615,7 +6921,7 @@
         <v>0</v>
       </c>
       <c r="T51">
-        <v>26009554</v>
+        <v>26016569</v>
       </c>
       <c r="U51">
         <v>123</v>
@@ -6651,30 +6957,36 @@
         <v>0</v>
       </c>
       <c r="AG51">
-        <v>26011831</v>
+        <v>26018846</v>
       </c>
       <c r="AH51">
-        <v>0.999912462909666</v>
+        <v>0.9999124865107392</v>
       </c>
       <c r="AI51">
+        <v>0</v>
+      </c>
+      <c r="AJ51">
         <v>1994</v>
       </c>
-      <c r="AJ51">
-        <v>0</v>
-      </c>
       <c r="AK51">
         <v>0</v>
       </c>
       <c r="AL51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM51">
+        <v>1</v>
+      </c>
+      <c r="AN51">
+        <v>1</v>
+      </c>
+      <c r="AO51">
         <v>119000</v>
       </c>
     </row>
-    <row r="52" spans="1:39">
+    <row r="52" spans="1:41">
       <c r="A52" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -6731,7 +7043,7 @@
         <v>0</v>
       </c>
       <c r="T52">
-        <v>26009554</v>
+        <v>26016569</v>
       </c>
       <c r="U52">
         <v>123</v>
@@ -6767,30 +7079,36 @@
         <v>6909225</v>
       </c>
       <c r="AG52">
-        <v>26011831</v>
+        <v>26018846</v>
       </c>
       <c r="AH52">
-        <v>0.999912462909666</v>
+        <v>0.9999124865107392</v>
       </c>
       <c r="AI52">
+        <v>0</v>
+      </c>
+      <c r="AJ52">
         <v>1994</v>
       </c>
-      <c r="AJ52">
-        <v>0</v>
-      </c>
       <c r="AK52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL52">
         <v>1</v>
       </c>
       <c r="AM52">
+        <v>1</v>
+      </c>
+      <c r="AN52">
+        <v>1</v>
+      </c>
+      <c r="AO52">
         <v>937000</v>
       </c>
     </row>
-    <row r="53" spans="1:39">
+    <row r="53" spans="1:41">
       <c r="A53" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -6847,7 +7165,7 @@
         <v>0</v>
       </c>
       <c r="T53">
-        <v>26009554</v>
+        <v>26016569</v>
       </c>
       <c r="U53">
         <v>123</v>
@@ -6883,30 +7201,36 @@
         <v>0</v>
       </c>
       <c r="AG53">
-        <v>26011831</v>
+        <v>26018846</v>
       </c>
       <c r="AH53">
-        <v>0.999912462909666</v>
+        <v>0.9999124865107392</v>
       </c>
       <c r="AI53">
+        <v>0</v>
+      </c>
+      <c r="AJ53">
         <v>1994</v>
       </c>
-      <c r="AJ53">
-        <v>0</v>
-      </c>
       <c r="AK53">
         <v>0</v>
       </c>
       <c r="AL53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM53">
+        <v>1</v>
+      </c>
+      <c r="AN53">
+        <v>1</v>
+      </c>
+      <c r="AO53">
         <v>846000</v>
       </c>
     </row>
-    <row r="54" spans="1:39">
+    <row r="54" spans="1:41">
       <c r="A54" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -6963,7 +7287,7 @@
         <v>0</v>
       </c>
       <c r="T54">
-        <v>26009554</v>
+        <v>26016569</v>
       </c>
       <c r="U54">
         <v>123</v>
@@ -6999,30 +7323,36 @@
         <v>6870483.333333333</v>
       </c>
       <c r="AG54">
-        <v>26011831</v>
+        <v>26018846</v>
       </c>
       <c r="AH54">
-        <v>0.999912462909666</v>
+        <v>0.9999124865107392</v>
       </c>
       <c r="AI54">
+        <v>0</v>
+      </c>
+      <c r="AJ54">
         <v>1994</v>
       </c>
-      <c r="AJ54">
-        <v>0</v>
-      </c>
       <c r="AK54">
         <v>0</v>
       </c>
       <c r="AL54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM54">
+        <v>1</v>
+      </c>
+      <c r="AN54">
+        <v>1</v>
+      </c>
+      <c r="AO54">
         <v>362000</v>
       </c>
     </row>
-    <row r="55" spans="1:39">
+    <row r="55" spans="1:41">
       <c r="A55" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -7079,7 +7409,7 @@
         <v>0</v>
       </c>
       <c r="T55">
-        <v>26009554</v>
+        <v>26016569</v>
       </c>
       <c r="U55">
         <v>123</v>
@@ -7115,30 +7445,36 @@
         <v>0</v>
       </c>
       <c r="AG55">
-        <v>26011831</v>
+        <v>26018846</v>
       </c>
       <c r="AH55">
-        <v>0.999912462909666</v>
+        <v>0.9999124865107392</v>
       </c>
       <c r="AI55">
+        <v>0</v>
+      </c>
+      <c r="AJ55">
         <v>1994</v>
       </c>
-      <c r="AJ55">
-        <v>0</v>
-      </c>
       <c r="AK55">
         <v>0</v>
       </c>
       <c r="AL55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM55">
+        <v>0</v>
+      </c>
+      <c r="AN55">
+        <v>1</v>
+      </c>
+      <c r="AO55">
         <v>1600</v>
       </c>
     </row>
-    <row r="56" spans="1:39">
+    <row r="56" spans="1:41">
       <c r="A56" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -7195,7 +7531,7 @@
         <v>0</v>
       </c>
       <c r="T56">
-        <v>26009554</v>
+        <v>26016569</v>
       </c>
       <c r="U56">
         <v>123</v>
@@ -7231,30 +7567,36 @@
         <v>8243214</v>
       </c>
       <c r="AG56">
-        <v>26011831</v>
+        <v>26018846</v>
       </c>
       <c r="AH56">
-        <v>0.999912462909666</v>
+        <v>0.9999124865107392</v>
       </c>
       <c r="AI56">
+        <v>0</v>
+      </c>
+      <c r="AJ56">
         <v>1994</v>
       </c>
-      <c r="AJ56">
-        <v>0</v>
-      </c>
       <c r="AK56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL56">
         <v>1</v>
       </c>
       <c r="AM56">
+        <v>1</v>
+      </c>
+      <c r="AN56">
+        <v>1</v>
+      </c>
+      <c r="AO56">
         <v>414000</v>
       </c>
     </row>
-    <row r="57" spans="1:39">
+    <row r="57" spans="1:41">
       <c r="A57" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -7311,7 +7653,7 @@
         <v>0</v>
       </c>
       <c r="T57">
-        <v>26009554</v>
+        <v>26016569</v>
       </c>
       <c r="U57">
         <v>123</v>
@@ -7347,30 +7689,36 @@
         <v>6615978</v>
       </c>
       <c r="AG57">
-        <v>26011831</v>
+        <v>26018846</v>
       </c>
       <c r="AH57">
-        <v>0.999912462909666</v>
+        <v>0.9999124865107392</v>
       </c>
       <c r="AI57">
+        <v>0</v>
+      </c>
+      <c r="AJ57">
         <v>1994</v>
       </c>
-      <c r="AJ57">
-        <v>0</v>
-      </c>
       <c r="AK57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL57">
         <v>1</v>
       </c>
       <c r="AM57">
+        <v>1</v>
+      </c>
+      <c r="AN57">
+        <v>1</v>
+      </c>
+      <c r="AO57">
         <v>659500</v>
       </c>
     </row>
-    <row r="58" spans="1:39">
+    <row r="58" spans="1:41">
       <c r="A58" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -7427,7 +7775,7 @@
         <v>0</v>
       </c>
       <c r="T58">
-        <v>26009554</v>
+        <v>26016569</v>
       </c>
       <c r="U58">
         <v>123</v>
@@ -7463,30 +7811,36 @@
         <v>8167890</v>
       </c>
       <c r="AG58">
-        <v>26011831</v>
+        <v>26018846</v>
       </c>
       <c r="AH58">
-        <v>0.999912462909666</v>
+        <v>0.9999124865107392</v>
       </c>
       <c r="AI58">
+        <v>0</v>
+      </c>
+      <c r="AJ58">
         <v>1994</v>
       </c>
-      <c r="AJ58">
-        <v>0</v>
-      </c>
       <c r="AK58">
         <v>0</v>
       </c>
       <c r="AL58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM58">
+        <v>0</v>
+      </c>
+      <c r="AN58">
+        <v>1</v>
+      </c>
+      <c r="AO58">
         <v>6000</v>
       </c>
     </row>
-    <row r="59" spans="1:39">
+    <row r="59" spans="1:41">
       <c r="A59" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -7543,7 +7897,7 @@
         <v>0</v>
       </c>
       <c r="T59">
-        <v>26009554</v>
+        <v>26016569</v>
       </c>
       <c r="U59">
         <v>123</v>
@@ -7579,30 +7933,36 @@
         <v>5988850</v>
       </c>
       <c r="AG59">
-        <v>26011831</v>
+        <v>26018846</v>
       </c>
       <c r="AH59">
-        <v>0.999912462909666</v>
+        <v>0.9999124865107392</v>
       </c>
       <c r="AI59">
+        <v>0</v>
+      </c>
+      <c r="AJ59">
         <v>1994</v>
       </c>
-      <c r="AJ59">
-        <v>0</v>
-      </c>
       <c r="AK59">
         <v>0</v>
       </c>
       <c r="AL59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM59">
+        <v>0</v>
+      </c>
+      <c r="AN59">
+        <v>1</v>
+      </c>
+      <c r="AO59">
         <v>38500</v>
       </c>
     </row>
-    <row r="60" spans="1:39">
+    <row r="60" spans="1:41">
       <c r="A60" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -7659,7 +8019,7 @@
         <v>0</v>
       </c>
       <c r="T60">
-        <v>26009554</v>
+        <v>26016569</v>
       </c>
       <c r="U60">
         <v>123</v>
@@ -7695,30 +8055,36 @@
         <v>0</v>
       </c>
       <c r="AG60">
-        <v>26011831</v>
+        <v>26018846</v>
       </c>
       <c r="AH60">
-        <v>0.999912462909666</v>
+        <v>0.9999124865107392</v>
       </c>
       <c r="AI60">
+        <v>0</v>
+      </c>
+      <c r="AJ60">
         <v>1994</v>
       </c>
-      <c r="AJ60">
-        <v>0</v>
-      </c>
       <c r="AK60">
         <v>0</v>
       </c>
       <c r="AL60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM60">
+        <v>0</v>
+      </c>
+      <c r="AN60">
+        <v>1</v>
+      </c>
+      <c r="AO60">
         <v>700</v>
       </c>
     </row>
-    <row r="61" spans="1:39">
+    <row r="61" spans="1:41">
       <c r="A61" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -7817,24 +8183,30 @@
         <v>0.9902632412736856</v>
       </c>
       <c r="AI61">
+        <v>0</v>
+      </c>
+      <c r="AJ61">
         <v>1994</v>
       </c>
-      <c r="AJ61">
-        <v>0</v>
-      </c>
       <c r="AK61">
         <v>0</v>
       </c>
       <c r="AL61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM61">
+        <v>1</v>
+      </c>
+      <c r="AN61">
+        <v>1</v>
+      </c>
+      <c r="AO61">
         <v>396500</v>
       </c>
     </row>
-    <row r="62" spans="1:39">
+    <row r="62" spans="1:41">
       <c r="A62" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -7933,24 +8305,30 @@
         <v>0.9902632412736856</v>
       </c>
       <c r="AI62">
+        <v>0</v>
+      </c>
+      <c r="AJ62">
         <v>1994</v>
       </c>
-      <c r="AJ62">
-        <v>0</v>
-      </c>
       <c r="AK62">
         <v>0</v>
       </c>
       <c r="AL62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM62">
+        <v>1</v>
+      </c>
+      <c r="AN62">
+        <v>1</v>
+      </c>
+      <c r="AO62">
         <v>229500</v>
       </c>
     </row>
-    <row r="63" spans="1:39">
+    <row r="63" spans="1:41">
       <c r="A63" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -8049,24 +8427,30 @@
         <v>0.9902632412736856</v>
       </c>
       <c r="AI63">
+        <v>0</v>
+      </c>
+      <c r="AJ63">
         <v>1994</v>
       </c>
-      <c r="AJ63">
-        <v>0</v>
-      </c>
       <c r="AK63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL63">
         <v>1</v>
       </c>
       <c r="AM63">
+        <v>1</v>
+      </c>
+      <c r="AN63">
+        <v>1</v>
+      </c>
+      <c r="AO63">
         <v>777500</v>
       </c>
     </row>
-    <row r="64" spans="1:39">
+    <row r="64" spans="1:41">
       <c r="A64" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -8165,24 +8549,30 @@
         <v>0.9902632412736856</v>
       </c>
       <c r="AI64">
+        <v>0</v>
+      </c>
+      <c r="AJ64">
         <v>1994</v>
       </c>
-      <c r="AJ64">
-        <v>0</v>
-      </c>
       <c r="AK64">
         <v>0</v>
       </c>
       <c r="AL64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM64">
+        <v>1</v>
+      </c>
+      <c r="AN64">
+        <v>1</v>
+      </c>
+      <c r="AO64">
         <v>304500</v>
       </c>
     </row>
-    <row r="65" spans="1:39">
+    <row r="65" spans="1:41">
       <c r="A65" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -8281,24 +8671,30 @@
         <v>0.9902632412736856</v>
       </c>
       <c r="AI65">
+        <v>0</v>
+      </c>
+      <c r="AJ65">
         <v>1994</v>
       </c>
-      <c r="AJ65">
-        <v>0</v>
-      </c>
       <c r="AK65">
         <v>0</v>
       </c>
       <c r="AL65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM65">
+        <v>1</v>
+      </c>
+      <c r="AN65">
+        <v>1</v>
+      </c>
+      <c r="AO65">
         <v>182500</v>
       </c>
     </row>
-    <row r="66" spans="1:39">
+    <row r="66" spans="1:41">
       <c r="A66" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -8397,24 +8793,30 @@
         <v>0.9902632412736856</v>
       </c>
       <c r="AI66">
+        <v>0</v>
+      </c>
+      <c r="AJ66">
         <v>1994</v>
       </c>
-      <c r="AJ66">
-        <v>0</v>
-      </c>
       <c r="AK66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL66">
         <v>1</v>
       </c>
       <c r="AM66">
+        <v>1</v>
+      </c>
+      <c r="AN66">
+        <v>1</v>
+      </c>
+      <c r="AO66">
         <v>731500</v>
       </c>
     </row>
-    <row r="67" spans="1:39">
+    <row r="67" spans="1:41">
       <c r="A67" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -8513,24 +8915,30 @@
         <v>0.9902632412736856</v>
       </c>
       <c r="AI67">
+        <v>0</v>
+      </c>
+      <c r="AJ67">
         <v>1994</v>
       </c>
-      <c r="AJ67">
-        <v>0</v>
-      </c>
       <c r="AK67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL67">
         <v>1</v>
       </c>
       <c r="AM67">
+        <v>1</v>
+      </c>
+      <c r="AN67">
+        <v>1</v>
+      </c>
+      <c r="AO67">
         <v>703000</v>
       </c>
     </row>
-    <row r="68" spans="1:39">
+    <row r="68" spans="1:41">
       <c r="A68" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -8629,24 +9037,30 @@
         <v>0.9902632412736856</v>
       </c>
       <c r="AI68">
+        <v>0</v>
+      </c>
+      <c r="AJ68">
         <v>1994</v>
       </c>
-      <c r="AJ68">
-        <v>0</v>
-      </c>
       <c r="AK68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL68">
         <v>1</v>
       </c>
       <c r="AM68">
+        <v>1</v>
+      </c>
+      <c r="AN68">
+        <v>1</v>
+      </c>
+      <c r="AO68">
         <v>518000</v>
       </c>
     </row>
-    <row r="69" spans="1:39">
+    <row r="69" spans="1:41">
       <c r="A69" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -8745,24 +9159,30 @@
         <v>0.9902632412736856</v>
       </c>
       <c r="AI69">
+        <v>0</v>
+      </c>
+      <c r="AJ69">
         <v>1994</v>
       </c>
-      <c r="AJ69">
-        <v>0</v>
-      </c>
       <c r="AK69">
         <v>0</v>
       </c>
       <c r="AL69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM69">
+        <v>1</v>
+      </c>
+      <c r="AN69">
+        <v>1</v>
+      </c>
+      <c r="AO69">
         <v>119000</v>
       </c>
     </row>
-    <row r="70" spans="1:39">
+    <row r="70" spans="1:41">
       <c r="A70" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -8861,24 +9281,30 @@
         <v>0.9902632412736856</v>
       </c>
       <c r="AI70">
+        <v>0</v>
+      </c>
+      <c r="AJ70">
         <v>1994</v>
       </c>
-      <c r="AJ70">
-        <v>0</v>
-      </c>
       <c r="AK70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL70">
         <v>1</v>
       </c>
       <c r="AM70">
+        <v>1</v>
+      </c>
+      <c r="AN70">
+        <v>1</v>
+      </c>
+      <c r="AO70">
         <v>937000</v>
       </c>
     </row>
-    <row r="71" spans="1:39">
+    <row r="71" spans="1:41">
       <c r="A71" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -8977,24 +9403,30 @@
         <v>0.9902632412736856</v>
       </c>
       <c r="AI71">
+        <v>0</v>
+      </c>
+      <c r="AJ71">
         <v>1994</v>
       </c>
-      <c r="AJ71">
-        <v>0</v>
-      </c>
       <c r="AK71">
         <v>0</v>
       </c>
       <c r="AL71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM71">
+        <v>1</v>
+      </c>
+      <c r="AN71">
+        <v>1</v>
+      </c>
+      <c r="AO71">
         <v>846000</v>
       </c>
     </row>
-    <row r="72" spans="1:39">
+    <row r="72" spans="1:41">
       <c r="A72" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -9093,24 +9525,30 @@
         <v>0.9902632412736856</v>
       </c>
       <c r="AI72">
+        <v>0</v>
+      </c>
+      <c r="AJ72">
         <v>1994</v>
       </c>
-      <c r="AJ72">
-        <v>0</v>
-      </c>
       <c r="AK72">
         <v>0</v>
       </c>
       <c r="AL72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM72">
+        <v>1</v>
+      </c>
+      <c r="AN72">
+        <v>1</v>
+      </c>
+      <c r="AO72">
         <v>362000</v>
       </c>
     </row>
-    <row r="73" spans="1:39">
+    <row r="73" spans="1:41">
       <c r="A73" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -9209,24 +9647,30 @@
         <v>0.9902632412736856</v>
       </c>
       <c r="AI73">
+        <v>0</v>
+      </c>
+      <c r="AJ73">
         <v>1994</v>
       </c>
-      <c r="AJ73">
-        <v>0</v>
-      </c>
       <c r="AK73">
         <v>0</v>
       </c>
       <c r="AL73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM73">
+        <v>0</v>
+      </c>
+      <c r="AN73">
+        <v>1</v>
+      </c>
+      <c r="AO73">
         <v>1600</v>
       </c>
     </row>
-    <row r="74" spans="1:39">
+    <row r="74" spans="1:41">
       <c r="A74" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -9325,24 +9769,30 @@
         <v>0.9902632412736856</v>
       </c>
       <c r="AI74">
+        <v>0</v>
+      </c>
+      <c r="AJ74">
         <v>1994</v>
       </c>
-      <c r="AJ74">
-        <v>0</v>
-      </c>
       <c r="AK74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL74">
         <v>1</v>
       </c>
       <c r="AM74">
+        <v>1</v>
+      </c>
+      <c r="AN74">
+        <v>1</v>
+      </c>
+      <c r="AO74">
         <v>414000</v>
       </c>
     </row>
-    <row r="75" spans="1:39">
+    <row r="75" spans="1:41">
       <c r="A75" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -9441,24 +9891,30 @@
         <v>0.9902632412736856</v>
       </c>
       <c r="AI75">
+        <v>0</v>
+      </c>
+      <c r="AJ75">
         <v>1994</v>
       </c>
-      <c r="AJ75">
-        <v>0</v>
-      </c>
       <c r="AK75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL75">
         <v>1</v>
       </c>
       <c r="AM75">
+        <v>1</v>
+      </c>
+      <c r="AN75">
+        <v>1</v>
+      </c>
+      <c r="AO75">
         <v>659500</v>
       </c>
     </row>
-    <row r="76" spans="1:39">
+    <row r="76" spans="1:41">
       <c r="A76" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -9557,24 +10013,30 @@
         <v>0.9902632412736856</v>
       </c>
       <c r="AI76">
+        <v>0</v>
+      </c>
+      <c r="AJ76">
         <v>1994</v>
       </c>
-      <c r="AJ76">
-        <v>0</v>
-      </c>
       <c r="AK76">
         <v>0</v>
       </c>
       <c r="AL76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM76">
+        <v>0</v>
+      </c>
+      <c r="AN76">
+        <v>1</v>
+      </c>
+      <c r="AO76">
         <v>6000</v>
       </c>
     </row>
-    <row r="77" spans="1:39">
+    <row r="77" spans="1:41">
       <c r="A77" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -9673,24 +10135,30 @@
         <v>0.9902632412736856</v>
       </c>
       <c r="AI77">
+        <v>0</v>
+      </c>
+      <c r="AJ77">
         <v>1994</v>
       </c>
-      <c r="AJ77">
-        <v>0</v>
-      </c>
       <c r="AK77">
         <v>0</v>
       </c>
       <c r="AL77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM77">
+        <v>0</v>
+      </c>
+      <c r="AN77">
+        <v>1</v>
+      </c>
+      <c r="AO77">
         <v>38500</v>
       </c>
     </row>
-    <row r="78" spans="1:39">
+    <row r="78" spans="1:41">
       <c r="A78" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -9789,24 +10257,30 @@
         <v>0.9902632412736856</v>
       </c>
       <c r="AI78">
+        <v>0</v>
+      </c>
+      <c r="AJ78">
         <v>1994</v>
       </c>
-      <c r="AJ78">
-        <v>0</v>
-      </c>
       <c r="AK78">
         <v>0</v>
       </c>
       <c r="AL78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM78">
+        <v>0</v>
+      </c>
+      <c r="AN78">
+        <v>1</v>
+      </c>
+      <c r="AO78">
         <v>700</v>
       </c>
     </row>
-    <row r="79" spans="1:39">
+    <row r="79" spans="1:41">
       <c r="A79" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -9905,24 +10379,30 @@
         <v>0.9840679873860156</v>
       </c>
       <c r="AI79">
+        <v>0</v>
+      </c>
+      <c r="AJ79">
         <v>1994</v>
       </c>
-      <c r="AJ79">
-        <v>0</v>
-      </c>
       <c r="AK79">
         <v>0</v>
       </c>
       <c r="AL79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM79">
+        <v>1</v>
+      </c>
+      <c r="AN79">
+        <v>1</v>
+      </c>
+      <c r="AO79">
         <v>2775300</v>
       </c>
     </row>
-    <row r="80" spans="1:39">
+    <row r="80" spans="1:41">
       <c r="A80" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -10021,24 +10501,30 @@
         <v>0.9840679873860156</v>
       </c>
       <c r="AI80">
+        <v>0</v>
+      </c>
+      <c r="AJ80">
         <v>1994</v>
       </c>
-      <c r="AJ80">
-        <v>0</v>
-      </c>
       <c r="AK80">
         <v>0</v>
       </c>
       <c r="AL80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM80">
+        <v>1</v>
+      </c>
+      <c r="AN80">
+        <v>1</v>
+      </c>
+      <c r="AO80">
         <v>1113970</v>
       </c>
     </row>
-    <row r="81" spans="1:39">
+    <row r="81" spans="1:41">
       <c r="A81" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -10137,24 +10623,30 @@
         <v>0.9840679873860156</v>
       </c>
       <c r="AI81">
+        <v>0</v>
+      </c>
+      <c r="AJ81">
         <v>1994</v>
       </c>
-      <c r="AJ81">
-        <v>0</v>
-      </c>
       <c r="AK81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL81">
         <v>1</v>
       </c>
       <c r="AM81">
+        <v>1</v>
+      </c>
+      <c r="AN81">
+        <v>1</v>
+      </c>
+      <c r="AO81">
         <v>2276760</v>
       </c>
     </row>
-    <row r="82" spans="1:39">
+    <row r="82" spans="1:41">
       <c r="A82" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B82">
         <v>1</v>
@@ -10253,24 +10745,30 @@
         <v>0.9840679873860156</v>
       </c>
       <c r="AI82">
+        <v>0</v>
+      </c>
+      <c r="AJ82">
         <v>1994</v>
       </c>
-      <c r="AJ82">
-        <v>0</v>
-      </c>
       <c r="AK82">
         <v>0</v>
       </c>
       <c r="AL82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM82">
+        <v>1</v>
+      </c>
+      <c r="AN82">
+        <v>1</v>
+      </c>
+      <c r="AO82">
         <v>1406205</v>
       </c>
     </row>
-    <row r="83" spans="1:39">
+    <row r="83" spans="1:41">
       <c r="A83" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -10369,24 +10867,30 @@
         <v>0.9840679873860156</v>
       </c>
       <c r="AI83">
+        <v>0</v>
+      </c>
+      <c r="AJ83">
         <v>1994</v>
       </c>
-      <c r="AJ83">
-        <v>0</v>
-      </c>
       <c r="AK83">
         <v>0</v>
       </c>
       <c r="AL83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM83">
+        <v>1</v>
+      </c>
+      <c r="AN83">
+        <v>1</v>
+      </c>
+      <c r="AO83">
         <v>906203</v>
       </c>
     </row>
-    <row r="84" spans="1:39">
+    <row r="84" spans="1:41">
       <c r="A84" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -10485,24 +10989,30 @@
         <v>0.9840679873860156</v>
       </c>
       <c r="AI84">
+        <v>0</v>
+      </c>
+      <c r="AJ84">
         <v>1994</v>
       </c>
-      <c r="AJ84">
-        <v>0</v>
-      </c>
       <c r="AK84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL84">
         <v>1</v>
       </c>
       <c r="AM84">
+        <v>1</v>
+      </c>
+      <c r="AN84">
+        <v>1</v>
+      </c>
+      <c r="AO84">
         <v>817018</v>
       </c>
     </row>
-    <row r="85" spans="1:39">
+    <row r="85" spans="1:41">
       <c r="A85" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -10601,24 +11111,30 @@
         <v>0.9840679873860156</v>
       </c>
       <c r="AI85">
+        <v>0</v>
+      </c>
+      <c r="AJ85">
         <v>1994</v>
       </c>
-      <c r="AJ85">
-        <v>0</v>
-      </c>
       <c r="AK85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL85">
         <v>1</v>
       </c>
       <c r="AM85">
+        <v>1</v>
+      </c>
+      <c r="AN85">
+        <v>1</v>
+      </c>
+      <c r="AO85">
         <v>4538513</v>
       </c>
     </row>
-    <row r="86" spans="1:39">
+    <row r="86" spans="1:41">
       <c r="A86" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -10717,24 +11233,30 @@
         <v>0.9840679873860156</v>
       </c>
       <c r="AI86">
+        <v>0</v>
+      </c>
+      <c r="AJ86">
         <v>1994</v>
       </c>
-      <c r="AJ86">
-        <v>0</v>
-      </c>
       <c r="AK86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL86">
         <v>1</v>
       </c>
       <c r="AM86">
+        <v>1</v>
+      </c>
+      <c r="AN86">
+        <v>1</v>
+      </c>
+      <c r="AO86">
         <v>1574363</v>
       </c>
     </row>
-    <row r="87" spans="1:39">
+    <row r="87" spans="1:41">
       <c r="A87" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -10833,24 +11355,30 @@
         <v>0.9840679873860156</v>
       </c>
       <c r="AI87">
+        <v>0</v>
+      </c>
+      <c r="AJ87">
         <v>1994</v>
       </c>
-      <c r="AJ87">
-        <v>0</v>
-      </c>
       <c r="AK87">
         <v>0</v>
       </c>
       <c r="AL87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM87">
+        <v>1</v>
+      </c>
+      <c r="AN87">
+        <v>1</v>
+      </c>
+      <c r="AO87">
         <v>434843</v>
       </c>
     </row>
-    <row r="88" spans="1:39">
+    <row r="88" spans="1:41">
       <c r="A88" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -10949,24 +11477,30 @@
         <v>0.9840679873860156</v>
       </c>
       <c r="AI88">
+        <v>0</v>
+      </c>
+      <c r="AJ88">
         <v>1994</v>
       </c>
-      <c r="AJ88">
-        <v>0</v>
-      </c>
       <c r="AK88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL88">
         <v>1</v>
       </c>
       <c r="AM88">
+        <v>1</v>
+      </c>
+      <c r="AN88">
+        <v>1</v>
+      </c>
+      <c r="AO88">
         <v>1800400</v>
       </c>
     </row>
-    <row r="89" spans="1:39">
+    <row r="89" spans="1:41">
       <c r="A89" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -11065,24 +11599,30 @@
         <v>0.9840679873860156</v>
       </c>
       <c r="AI89">
+        <v>0</v>
+      </c>
+      <c r="AJ89">
         <v>1994</v>
       </c>
-      <c r="AJ89">
-        <v>0</v>
-      </c>
       <c r="AK89">
         <v>0</v>
       </c>
       <c r="AL89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM89">
+        <v>1</v>
+      </c>
+      <c r="AN89">
+        <v>1</v>
+      </c>
+      <c r="AO89">
         <v>1607912</v>
       </c>
     </row>
-    <row r="90" spans="1:39">
+    <row r="90" spans="1:41">
       <c r="A90" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B90">
         <v>1</v>
@@ -11181,24 +11721,30 @@
         <v>0.9840679873860156</v>
       </c>
       <c r="AI90">
+        <v>0</v>
+      </c>
+      <c r="AJ90">
         <v>1994</v>
       </c>
-      <c r="AJ90">
-        <v>0</v>
-      </c>
       <c r="AK90">
         <v>0</v>
       </c>
       <c r="AL90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM90">
+        <v>1</v>
+      </c>
+      <c r="AN90">
+        <v>1</v>
+      </c>
+      <c r="AO90">
         <v>1836058</v>
       </c>
     </row>
-    <row r="91" spans="1:39">
+    <row r="91" spans="1:41">
       <c r="A91" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -11297,24 +11843,30 @@
         <v>0.9840679873860156</v>
       </c>
       <c r="AI91">
+        <v>0</v>
+      </c>
+      <c r="AJ91">
         <v>1994</v>
       </c>
-      <c r="AJ91">
-        <v>0</v>
-      </c>
       <c r="AK91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL91">
         <v>1</v>
       </c>
       <c r="AM91">
+        <v>1</v>
+      </c>
+      <c r="AN91">
+        <v>1</v>
+      </c>
+      <c r="AO91">
         <v>1532517</v>
       </c>
     </row>
-    <row r="92" spans="1:39">
+    <row r="92" spans="1:41">
       <c r="A92" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -11413,18 +11965,24 @@
         <v>0.9840679873860156</v>
       </c>
       <c r="AI92">
+        <v>0</v>
+      </c>
+      <c r="AJ92">
         <v>1994</v>
       </c>
-      <c r="AJ92">
-        <v>0</v>
-      </c>
       <c r="AK92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL92">
         <v>1</v>
       </c>
       <c r="AM92">
+        <v>1</v>
+      </c>
+      <c r="AN92">
+        <v>1</v>
+      </c>
+      <c r="AO92">
         <v>1099310</v>
       </c>
     </row>

--- a/output/educo.xlsx
+++ b/output/educo.xlsx
@@ -22,25 +22,25 @@
     <t>ONU</t>
   </si>
   <si>
-    <t>Gross_National_Income</t>
+    <t>GDP</t>
   </si>
   <si>
     <t>Public_Grant</t>
   </si>
   <si>
-    <t>NGO_Country_Budget_Previous_Year</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_LatinAmerica</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Africa</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Confessional</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Universal</t>
+    <t>Budget_Previous_Year</t>
+  </si>
+  <si>
+    <t>LatinAmerica</t>
+  </si>
+  <si>
+    <t>Africa</t>
+  </si>
+  <si>
+    <t>Confessional</t>
+  </si>
+  <si>
+    <t>Universal</t>
   </si>
   <si>
     <t>Public_Funds_MAE</t>
@@ -109,16 +109,16 @@
     <t>Voluntarios_Extranjero</t>
   </si>
   <si>
-    <t>Total_subvencion_en_el_Pais_y_Anyo</t>
-  </si>
-  <si>
-    <t>Total_Fondos</t>
-  </si>
-  <si>
-    <t>Proporcion_Fondos_Privados</t>
-  </si>
-  <si>
-    <t>Proporcion_Fondos_MAE</t>
+    <t>Donor_Aid_Budget</t>
+  </si>
+  <si>
+    <t>Total_Funds</t>
+  </si>
+  <si>
+    <t>%_Private_Funds</t>
+  </si>
+  <si>
+    <t>%_MAE_Funds</t>
   </si>
   <si>
     <t>Anyo_ONG</t>
@@ -130,7 +130,7 @@
     <t>Colony</t>
   </si>
   <si>
-    <t>Delegacion</t>
+    <t>Delegation</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -892,7 +892,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2620</v>
+        <v>2870.311589353206</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1014,7 +1014,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>680</v>
+        <v>697.6889104500298</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM3">
         <v>0</v>
@@ -1136,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1620</v>
+        <v>1873.394108966653</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1258,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4940</v>
+        <v>5191.140356354663</v>
       </c>
       <c r="D5">
         <v>213519</v>
@@ -1360,7 +1360,7 @@
         <v>0</v>
       </c>
       <c r="AL5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM5">
         <v>0</v>
@@ -1380,7 +1380,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6800</v>
+        <v>7772.38875590225</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1502,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>1380</v>
+        <v>1460.056109840828</v>
       </c>
       <c r="D7">
         <v>446362</v>
@@ -1624,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>2820</v>
+        <v>2934.187009790061</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>6520</v>
+        <v>6923.341809163824</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1868,7 +1868,7 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>6490</v>
+        <v>7854.952374701078</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1990,7 +1990,7 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>3970</v>
+        <v>4729.735976516416</v>
       </c>
       <c r="D11">
         <v>306929</v>
@@ -2112,7 +2112,7 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>4060</v>
+        <v>4547.50930098406</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -2234,7 +2234,7 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>1620</v>
+        <v>1909.084588129339</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -2356,7 +2356,7 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>2710</v>
+        <v>2898.942214704482</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -2478,7 +2478,7 @@
         <v>1</v>
       </c>
       <c r="C15">
-        <v>650</v>
+        <v>665.6274194933962</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -2580,7 +2580,7 @@
         <v>0</v>
       </c>
       <c r="AL15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM15">
         <v>0</v>
@@ -2600,7 +2600,7 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>1730</v>
+        <v>1904.346464968814</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -2722,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>5340</v>
+        <v>5555.389721901988</v>
       </c>
       <c r="D17">
         <v>213519</v>
@@ -2824,7 +2824,7 @@
         <v>0</v>
       </c>
       <c r="AL17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM17">
         <v>0</v>
@@ -2844,7 +2844,7 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>7150</v>
+        <v>8082.02845866252</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>1460</v>
+        <v>1503.870423231357</v>
       </c>
       <c r="D19">
         <v>446362</v>
@@ -3088,7 +3088,7 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>2890</v>
+        <v>2983.242707849043</v>
       </c>
       <c r="D20">
         <v>278120</v>
@@ -3210,7 +3210,7 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>6720</v>
+        <v>6967.266654334572</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -3332,7 +3332,7 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>7180</v>
+        <v>8141.91312675461</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -3454,7 +3454,7 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>4410</v>
+        <v>5082.354756663512</v>
       </c>
       <c r="D23">
         <v>306929</v>
@@ -3576,7 +3576,7 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>4390</v>
+        <v>4633.590358399045</v>
       </c>
       <c r="D24">
         <v>2094170</v>
@@ -3698,7 +3698,7 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>1780</v>
+        <v>1955.461557360978</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -3820,7 +3820,7 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>3060</v>
+        <v>3083.80337578809</v>
       </c>
       <c r="D26">
         <v>278120</v>
@@ -3942,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <v>2860</v>
+        <v>2965.153206179127</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -4064,7 +4064,7 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <v>1570</v>
+        <v>1577.487171555845</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <v>5540</v>
+        <v>5660.517066940175</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -4288,7 +4288,7 @@
         <v>0</v>
       </c>
       <c r="AL29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM29">
         <v>0</v>
@@ -4308,7 +4308,7 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <v>1990</v>
+        <v>2024.117324382548</v>
       </c>
       <c r="D30">
         <v>323437</v>
@@ -4430,7 +4430,7 @@
         <v>0</v>
       </c>
       <c r="C31">
-        <v>4870</v>
+        <v>4921.848409120176</v>
       </c>
       <c r="D31">
         <v>2094170</v>
@@ -4552,7 +4552,7 @@
         <v>0</v>
       </c>
       <c r="C32">
-        <v>4970</v>
+        <v>5360.226632400601</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -4674,7 +4674,7 @@
         <v>0</v>
       </c>
       <c r="C33">
-        <v>5390</v>
+        <v>5122.180090208862</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -4796,7 +4796,7 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <v>3210</v>
+        <v>3156.723844635973</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -4918,7 +4918,7 @@
         <v>0</v>
       </c>
       <c r="C35">
-        <v>5790</v>
+        <v>5745.422744292303</v>
       </c>
       <c r="D35">
         <v>344400</v>
@@ -5020,7 +5020,7 @@
         <v>0</v>
       </c>
       <c r="AL35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM35">
         <v>0</v>
@@ -5040,7 +5040,7 @@
         <v>0</v>
       </c>
       <c r="C36">
-        <v>5790</v>
+        <v>5642.578115155247</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -5162,7 +5162,7 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>2250</v>
+        <v>2094.024217383061</v>
       </c>
       <c r="D37">
         <v>323437</v>
@@ -5284,7 +5284,7 @@
         <v>0</v>
       </c>
       <c r="C38">
-        <v>5810</v>
+        <v>5295.682695961288</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="C39">
-        <v>3350</v>
+        <v>3212.740625904757</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -5528,7 +5528,7 @@
         <v>0</v>
       </c>
       <c r="C40">
-        <v>6020</v>
+        <v>5955.175904294275</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -5630,7 +5630,7 @@
         <v>0</v>
       </c>
       <c r="AL40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM40">
         <v>0</v>
@@ -5650,7 +5650,7 @@
         <v>0</v>
       </c>
       <c r="C41">
-        <v>6420</v>
+        <v>5919.20956823756</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="C42">
-        <v>2590</v>
+        <v>2201.396847776877</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -5894,7 +5894,7 @@
         <v>1</v>
       </c>
       <c r="C43">
-        <v>1110</v>
+        <v>951.3148210424945</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -6016,7 +6016,7 @@
         <v>1</v>
       </c>
       <c r="C44">
-        <v>930</v>
+        <v>1140.447753778042</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -6138,7 +6138,7 @@
         <v>0</v>
       </c>
       <c r="C45">
-        <v>2830</v>
+        <v>2286.013198234259</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -6260,7 +6260,7 @@
         <v>1</v>
       </c>
       <c r="C46">
-        <v>690</v>
+        <v>720.1523351943922</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -6382,7 +6382,7 @@
         <v>1</v>
       </c>
       <c r="C47">
-        <v>1020</v>
+        <v>972.7427283025324</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -6504,7 +6504,7 @@
         <v>0</v>
       </c>
       <c r="C48">
-        <v>6110</v>
+        <v>5412.131646018807</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -6626,7 +6626,7 @@
         <v>0</v>
       </c>
       <c r="C49">
-        <v>3400</v>
+        <v>3252.634165082374</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -6748,7 +6748,7 @@
         <v>0</v>
       </c>
       <c r="C50">
-        <v>3450</v>
+        <v>2612.856880840196</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -6870,7 +6870,7 @@
         <v>0</v>
       </c>
       <c r="C51">
-        <v>1920</v>
+        <v>1627.760281433693</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -6992,7 +6992,7 @@
         <v>0</v>
       </c>
       <c r="C52">
-        <v>3460</v>
+        <v>3137.260298393558</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -7114,7 +7114,7 @@
         <v>0</v>
       </c>
       <c r="C53">
-        <v>1560</v>
+        <v>1640.18070024053</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -7236,7 +7236,7 @@
         <v>1</v>
       </c>
       <c r="C54">
-        <v>810</v>
+        <v>707.8672001573369</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -7358,7 +7358,7 @@
         <v>1</v>
       </c>
       <c r="C55">
-        <v>770</v>
+        <v>711.3043470146426</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -7480,7 +7480,7 @@
         <v>0</v>
       </c>
       <c r="C56">
-        <v>1850</v>
+        <v>1775.027517189621</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -7602,7 +7602,7 @@
         <v>0</v>
       </c>
       <c r="C57">
-        <v>6530</v>
+        <v>5996.49696468919</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -7724,7 +7724,7 @@
         <v>0</v>
       </c>
       <c r="C58">
-        <v>6310</v>
+        <v>6301.696269820412</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -7826,7 +7826,7 @@
         <v>0</v>
       </c>
       <c r="AL58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM58">
         <v>0</v>
@@ -7846,7 +7846,7 @@
         <v>1</v>
       </c>
       <c r="C59">
-        <v>1380</v>
+        <v>1338.716747746975</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -7968,7 +7968,7 @@
         <v>0</v>
       </c>
       <c r="C60">
-        <v>6330</v>
+        <v>6103.744960203087</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -8090,7 +8090,7 @@
         <v>0</v>
       </c>
       <c r="C61">
-        <v>1220</v>
+        <v>1002.388731936373</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -8212,7 +8212,7 @@
         <v>0</v>
       </c>
       <c r="C62">
-        <v>860</v>
+        <v>1128.996380299766</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -8334,7 +8334,7 @@
         <v>0</v>
       </c>
       <c r="C63">
-        <v>2960</v>
+        <v>2361.056581219794</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -8456,7 +8456,7 @@
         <v>0</v>
       </c>
       <c r="C64">
-        <v>630</v>
+        <v>726.6520119370772</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -8578,7 +8578,7 @@
         <v>0</v>
       </c>
       <c r="C65">
-        <v>1060</v>
+        <v>1024.621364522189</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -8700,7 +8700,7 @@
         <v>0</v>
       </c>
       <c r="C66">
-        <v>5970</v>
+        <v>5330.539154475424</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -8822,7 +8822,7 @@
         <v>0</v>
       </c>
       <c r="C67">
-        <v>3440</v>
+        <v>3314.741082534716</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -8944,7 +8944,7 @@
         <v>0</v>
       </c>
       <c r="C68">
-        <v>3510</v>
+        <v>2735.187532014817</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -9066,7 +9066,7 @@
         <v>0</v>
       </c>
       <c r="C69">
-        <v>1960</v>
+        <v>1625.905825842452</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -9188,7 +9188,7 @@
         <v>0</v>
       </c>
       <c r="C70">
-        <v>3620</v>
+        <v>3210.869677115934</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -9310,7 +9310,7 @@
         <v>0</v>
       </c>
       <c r="C71">
-        <v>1600</v>
+        <v>1751.664428859304</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -9432,7 +9432,7 @@
         <v>0</v>
       </c>
       <c r="C72">
-        <v>790</v>
+        <v>729.7808175407341</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -9554,7 +9554,7 @@
         <v>0</v>
       </c>
       <c r="C73">
-        <v>780</v>
+        <v>731.9993357350996</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -9676,7 +9676,7 @@
         <v>0</v>
       </c>
       <c r="C74">
-        <v>1910</v>
+        <v>1836.014008604312</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -9798,7 +9798,7 @@
         <v>0</v>
       </c>
       <c r="C75">
-        <v>6340</v>
+        <v>6114.227214287786</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -9920,7 +9920,7 @@
         <v>0</v>
       </c>
       <c r="C76">
-        <v>6480</v>
+        <v>6661.86504232374</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -10022,7 +10022,7 @@
         <v>0</v>
       </c>
       <c r="AL76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM76">
         <v>0</v>
@@ -10042,7 +10042,7 @@
         <v>0</v>
       </c>
       <c r="C77">
-        <v>1320</v>
+        <v>1384.519227335143</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -10164,7 +10164,7 @@
         <v>0</v>
       </c>
       <c r="C78">
-        <v>6067.5</v>
+        <v>6249.151036691844</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -10286,7 +10286,7 @@
         <v>1</v>
       </c>
       <c r="C79">
-        <v>1370</v>
+        <v>1062.040157863007</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -10408,7 +10408,7 @@
         <v>1</v>
       </c>
       <c r="C80">
-        <v>820</v>
+        <v>1134.924536209078</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -10530,7 +10530,7 @@
         <v>0</v>
       </c>
       <c r="C81">
-        <v>3040</v>
+        <v>2425.561644739583</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -10652,7 +10652,7 @@
         <v>1</v>
       </c>
       <c r="C82">
-        <v>600</v>
+        <v>747.8284752776283</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -10774,7 +10774,7 @@
         <v>1</v>
       </c>
       <c r="C83">
-        <v>1140</v>
+        <v>1079.630539001193</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -10896,7 +10896,7 @@
         <v>0</v>
       </c>
       <c r="C84">
-        <v>5810</v>
+        <v>5176.058803160127</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -11018,7 +11018,7 @@
         <v>0</v>
       </c>
       <c r="C85">
-        <v>3510</v>
+        <v>3382.563653843273</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -11140,7 +11140,7 @@
         <v>0</v>
       </c>
       <c r="C86">
-        <v>3570</v>
+        <v>2886.897484630703</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -11262,7 +11262,7 @@
         <v>0</v>
       </c>
       <c r="C87">
-        <v>1830</v>
+        <v>1644.598009122967</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -11384,7 +11384,7 @@
         <v>0</v>
       </c>
       <c r="C88">
-        <v>3800</v>
+        <v>3242.636921959078</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -11506,7 +11506,7 @@
         <v>0</v>
       </c>
       <c r="C89">
-        <v>1690</v>
+        <v>1875.732161108182</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -11628,7 +11628,7 @@
         <v>1</v>
       </c>
       <c r="C90">
-        <v>780</v>
+        <v>749.2194349876407</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -11750,7 +11750,7 @@
         <v>0</v>
       </c>
       <c r="C91">
-        <v>2000</v>
+        <v>1895.214690888655</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -11872,7 +11872,7 @@
         <v>0</v>
       </c>
       <c r="C92">
-        <v>6120</v>
+        <v>6262.368904654469</v>
       </c>
       <c r="D92">
         <v>0</v>

--- a/output/educo.xlsx
+++ b/output/educo.xlsx
@@ -2725,7 +2725,7 @@
         <v>5555.389721901988</v>
       </c>
       <c r="D17">
-        <v>213519</v>
+        <v>0</v>
       </c>
       <c r="E17">
         <v>295350</v>
@@ -2969,7 +2969,7 @@
         <v>1503.870423231357</v>
       </c>
       <c r="D19">
-        <v>446362</v>
+        <v>0</v>
       </c>
       <c r="E19">
         <v>159219</v>
@@ -3457,7 +3457,7 @@
         <v>5082.354756663512</v>
       </c>
       <c r="D23">
-        <v>306929</v>
+        <v>0</v>
       </c>
       <c r="E23">
         <v>565884</v>
@@ -3823,7 +3823,7 @@
         <v>3083.80337578809</v>
       </c>
       <c r="D26">
-        <v>278120</v>
+        <v>0</v>
       </c>
       <c r="E26">
         <v>335344</v>
@@ -4433,7 +4433,7 @@
         <v>4921.848409120176</v>
       </c>
       <c r="D31">
-        <v>2094170</v>
+        <v>0</v>
       </c>
       <c r="E31">
         <v>365538</v>
@@ -5165,7 +5165,7 @@
         <v>2094.024217383061</v>
       </c>
       <c r="D37">
-        <v>323437</v>
+        <v>0</v>
       </c>
       <c r="E37">
         <v>115304</v>
@@ -5290,7 +5290,7 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>267680.5</v>
+        <v>479067</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -5412,7 +5412,7 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>71965.5</v>
+        <v>330805</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -5534,7 +5534,7 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>78484.5</v>
+        <v>301829</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -5656,7 +5656,7 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>147654</v>
+        <v>581907</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -5778,7 +5778,7 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>158600.5</v>
+        <v>115304</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -8087,7 +8087,7 @@
         <v>100</v>
       </c>
       <c r="B61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C61">
         <v>1002.388731936373</v>
@@ -8096,7 +8096,7 @@
         <v>0</v>
       </c>
       <c r="E61">
-        <v>396500</v>
+        <v>0</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -8209,7 +8209,7 @@
         <v>101</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C62">
         <v>1128.996380299766</v>
@@ -8218,7 +8218,7 @@
         <v>0</v>
       </c>
       <c r="E62">
-        <v>229500</v>
+        <v>0</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -8340,7 +8340,7 @@
         <v>0</v>
       </c>
       <c r="E63">
-        <v>777500</v>
+        <v>158600.5</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -8453,7 +8453,7 @@
         <v>103</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C64">
         <v>726.6520119370772</v>
@@ -8462,7 +8462,7 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <v>304500</v>
+        <v>0</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -8575,7 +8575,7 @@
         <v>104</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C65">
         <v>1024.621364522189</v>
@@ -8584,7 +8584,7 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <v>182500</v>
+        <v>0</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -8706,7 +8706,7 @@
         <v>0</v>
       </c>
       <c r="E66">
-        <v>731500</v>
+        <v>267680.5</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -8828,7 +8828,7 @@
         <v>0</v>
       </c>
       <c r="E67">
-        <v>703000</v>
+        <v>71965.5</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>0</v>
       </c>
       <c r="E68">
-        <v>518000</v>
+        <v>0</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -9072,7 +9072,7 @@
         <v>0</v>
       </c>
       <c r="E69">
-        <v>119000</v>
+        <v>0</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -9194,7 +9194,7 @@
         <v>0</v>
       </c>
       <c r="E70">
-        <v>937000</v>
+        <v>0</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -9316,7 +9316,7 @@
         <v>0</v>
       </c>
       <c r="E71">
-        <v>846000</v>
+        <v>0</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -9429,7 +9429,7 @@
         <v>111</v>
       </c>
       <c r="B72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C72">
         <v>729.7808175407341</v>
@@ -9438,7 +9438,7 @@
         <v>0</v>
       </c>
       <c r="E72">
-        <v>362000</v>
+        <v>0</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -9551,7 +9551,7 @@
         <v>112</v>
       </c>
       <c r="B73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C73">
         <v>731.9993357350996</v>
@@ -9560,7 +9560,7 @@
         <v>0</v>
       </c>
       <c r="E73">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -9682,7 +9682,7 @@
         <v>0</v>
       </c>
       <c r="E74">
-        <v>414000</v>
+        <v>0</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -9804,7 +9804,7 @@
         <v>0</v>
       </c>
       <c r="E75">
-        <v>659500</v>
+        <v>147654</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -9926,7 +9926,7 @@
         <v>0</v>
       </c>
       <c r="E76">
-        <v>6000</v>
+        <v>78484.5</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -10039,7 +10039,7 @@
         <v>116</v>
       </c>
       <c r="B77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C77">
         <v>1384.519227335143</v>
@@ -10048,7 +10048,7 @@
         <v>0</v>
       </c>
       <c r="E77">
-        <v>38500</v>
+        <v>0</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -10170,7 +10170,7 @@
         <v>0</v>
       </c>
       <c r="E78">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="F78">
         <v>0</v>
